--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail0 Features.xlsx
@@ -5706,7 +5706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5717,29 +5717,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5760,115 +5758,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5885,72 +5873,66 @@
         <v>7.476138947985576e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.310276139828159</v>
+        <v>2.486870203283699e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.2904017106382177</v>
+        <v>2.604821104555576e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.486870203283699e-07</v>
+        <v>0.009905462994882298</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.604821104555576e-06</v>
+        <v>0.1938093377237088</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.009905462994882298</v>
+        <v>0.03760766890861358</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1938093377237088</v>
+        <v>1.794474545692399</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03760766890861358</v>
+        <v>1.667964988091996</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.733318205576019</v>
+        <v>4.176598444502485</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.667964988091996</v>
+        <v>1.667229261342406e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.176598444502485</v>
+        <v>109159220.390879</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.667229261342406e-15</v>
+        <v>1.073553312800343e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>109159220.390879</v>
+        <v>19.866262723199</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.073553312800343e-06</v>
+        <v>0.0001075540864165002</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>19.866262723199</v>
+        <v>8.011727301806239</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001075540864165002</v>
+        <v>1.524175986617594</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.011727301806239</v>
+        <v>0.006903657430237732</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.524175986617594</v>
+        <v>3.285197873489489</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006903657430237732</v>
+        <v>0.9525619788909546</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.285197873489489</v>
+        <v>1.694307336342144</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9525619788909546</v>
+        <v>21</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.694307336342144</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2474727066742198</v>
       </c>
     </row>
@@ -5965,72 +5947,66 @@
         <v>7.395466732720736e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.369791479894906</v>
+        <v>2.486870203283699e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4800909660358297</v>
+        <v>2.605912447219702e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.486870203283699e-07</v>
+        <v>0.01845972941958464</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.605912447219702e-06</v>
+        <v>0.1734806198355665</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01845972941958464</v>
+        <v>0.03041175202882895</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1734806198355665</v>
+        <v>1.805195238370608</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03041175202882895</v>
+        <v>1.689867615156238</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.742031348661652</v>
+        <v>4.281966661161563</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.689867615156238</v>
+        <v>1.586186340130156e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.281966661161563</v>
+        <v>119666842.9000451</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.586186340130156e-15</v>
+        <v>9.860335873636297e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>119666842.9000451</v>
+        <v>22.71443153663507</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.860335873636297e-07</v>
+        <v>0.0001110310747839109</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>22.71443153663507</v>
+        <v>8.310455352002116</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001110310747839109</v>
+        <v>1.159710146386307</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.310455352002116</v>
+        <v>0.007668213304059977</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.159710146386307</v>
+        <v>3.058680007755183</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007668213304059977</v>
+        <v>0.9524692309431873</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.058680007755183</v>
+        <v>1.657891348250983</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9524692309431873</v>
+        <v>21</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.657891348250983</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2419617637562162</v>
       </c>
     </row>
@@ -6045,72 +6021,66 @@
         <v>7.215940578965192e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.441680891658826</v>
+        <v>2.486870203283699e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7788637129129317</v>
+        <v>2.607457671826128e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.486870203283699e-07</v>
+        <v>0.02325072379540943</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.607457671826128e-06</v>
+        <v>0.1682005163990873</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02325072379540943</v>
+        <v>0.0288189591526029</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1682005163990873</v>
+        <v>1.805863179149177</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0288189591526029</v>
+        <v>1.649872130622519</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.743872621201014</v>
+        <v>4.434453382369866</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.649872130622519</v>
+        <v>1.478974143282988e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.434453382369866</v>
+        <v>127339451.8758172</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.478974143282988e-15</v>
+        <v>9.234284430166764e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>127339451.8758172</v>
+        <v>23.98206267461132</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.234284430166764e-07</v>
+        <v>0.0001142240273777568</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>23.98206267461132</v>
+        <v>7.859013273942792</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001142240273777568</v>
+        <v>1.224331959635476</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.859013273942792</v>
+        <v>0.007054943066002614</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.224331959635476</v>
+        <v>3.118448769621911</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007054943066002614</v>
+        <v>0.9524701271346669</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.118448769621911</v>
+        <v>1.698530732217203</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9524701271346669</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.698530732217203</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2302829079781213</v>
       </c>
     </row>
@@ -6125,72 +6095,66 @@
         <v>6.949393643506694e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.494216612377251</v>
+        <v>2.486870203283699e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.075630172042386</v>
+        <v>2.609199118303458e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.486870203283699e-07</v>
+        <v>0.02539133719886084</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.609199118303458e-06</v>
+        <v>0.1723839609946251</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02539133719886084</v>
+        <v>0.03035468177389467</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1723839609946251</v>
+        <v>1.802562315475455</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03035468177389467</v>
+        <v>1.641951601806586</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.742824813833893</v>
+        <v>4.765474598106254</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.641951601806586</v>
+        <v>1.280644093701004e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.765474598106254</v>
+        <v>142668553.8133885</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.280644093701004e-15</v>
+        <v>8.208538541802542e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>142668553.8133885</v>
+        <v>26.06663488330384</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.208538541802542e-07</v>
+        <v>0.0001145047367877076</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>26.06663488330384</v>
+        <v>7.435631092308872</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001145047367877076</v>
+        <v>1.29508658059812</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.435631092308872</v>
+        <v>0.006330807705741239</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.29508658059812</v>
+        <v>3.175177814304482</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006330807705741239</v>
+        <v>0.9519031874997551</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.175177814304482</v>
+        <v>1.712134004052252</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9519031874997551</v>
+        <v>40</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.712134004052252</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2354041102126936</v>
       </c>
     </row>
@@ -6205,72 +6169,66 @@
         <v>6.630096303802587e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.506230900383449</v>
+        <v>2.486870203283699e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.257470853514391</v>
+        <v>2.610927199945734e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.486870203283699e-07</v>
+        <v>0.02502530104361401</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.610927199945734e-06</v>
+        <v>0.1823924172464313</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02502530104361401</v>
+        <v>0.03389005351878126</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1823924172464313</v>
+        <v>1.818372901685262</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03389005351878126</v>
+        <v>1.774561375244787</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.763134447041191</v>
+        <v>4.790202091430838</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.774561375244787</v>
+        <v>1.267456598355695e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.790202091430838</v>
+        <v>142691083.5623231</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.267456598355695e-15</v>
+        <v>8.237408947246951e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>142691083.5623231</v>
+        <v>25.80636101365414</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.237408947246951e-07</v>
+        <v>0.0001178817261414857</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>25.80636101365414</v>
+        <v>7.054378114406004</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001178817261414857</v>
+        <v>1.400449244901275</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.054378114406004</v>
+        <v>0.00586629575862694</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.400449244901275</v>
+        <v>3.250102385648147</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00586629575862694</v>
+        <v>0.9527906092272701</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.250102385648147</v>
+        <v>1.676612506478665</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9527906092272701</v>
+        <v>25</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.676612506478665</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2462854613446743</v>
       </c>
     </row>
@@ -6285,72 +6243,66 @@
         <v>6.30404294365625e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.472108480466342</v>
+        <v>2.47489172621174e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.258642095518925</v>
+        <v>2.612475169634743e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.47489172621174e-07</v>
+        <v>0.02256012336951908</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.612475169634743e-06</v>
+        <v>0.1942721064068717</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02256012336951908</v>
+        <v>0.03824791342573768</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1942721064068717</v>
+        <v>1.816657073301961</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03824791342573768</v>
+        <v>1.658400426355378</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.765293619453188</v>
+        <v>4.749499887167396</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.658400426355378</v>
+        <v>1.289273349119632e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.749499887167396</v>
+        <v>134496986.3137746</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.289273349119632e-15</v>
+        <v>8.669475419779412e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>134496986.3137746</v>
+        <v>23.32223202544644</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.669475419779412e-07</v>
+        <v>0.0001363282255778337</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>23.32223202544644</v>
+        <v>8.18789358414508</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001363282255778337</v>
+        <v>1.396156807019883</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.18789358414508</v>
+        <v>0.009139662551299098</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.396156807019883</v>
+        <v>3.169452521925818</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009139662551299098</v>
+        <v>0.9529527278229113</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.169452521925818</v>
+        <v>1.727432899277309</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9529527278229113</v>
+        <v>20</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.727432899277309</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2932715664974086</v>
       </c>
     </row>
@@ -6365,72 +6317,66 @@
         <v>6.005976890387104e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.399038468870008</v>
+        <v>2.423841155709083e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.072182071874415</v>
+        <v>2.613763634854021e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.423841155709083e-07</v>
+        <v>0.01916627414603271</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.613763634854021e-06</v>
+        <v>0.2054976888989971</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01916627414603271</v>
+        <v>0.04259406964768859</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2054976888989971</v>
+        <v>1.817515901518346</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04259406964768859</v>
+        <v>1.603017738423004</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.768626708886756</v>
+        <v>4.917207776629262</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.603017738423004</v>
+        <v>1.202828332054934e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.917207776629262</v>
+        <v>142707771.3850209</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.202828332054934e-15</v>
+        <v>8.177317828896747e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>142707771.3850209</v>
+        <v>24.49621003554535</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.177317828896747e-07</v>
+        <v>0.000182052391600539</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>24.49621003554535</v>
+        <v>12.25003540998283</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000182052391600539</v>
+        <v>1.035096106519885</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.25003540998283</v>
+        <v>0.02731939495334963</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.035096106519885</v>
+        <v>2.662450858374612</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02731939495334963</v>
+        <v>0.9528826869546657</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.662450858374612</v>
+        <v>1.712233814529008</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9528826869546657</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.712233814529008</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4368558173663646</v>
       </c>
     </row>
@@ -6445,72 +6391,66 @@
         <v>5.757952313875556e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.305546888054725</v>
+        <v>2.327395799822431e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.7583936832389204</v>
+        <v>2.614770997192736e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.327395799822431e-07</v>
+        <v>0.01495253824250539</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.614770997192736e-06</v>
+        <v>0.2143764806289896</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01495253824250539</v>
+        <v>0.04617745343107039</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2143764806289896</v>
+        <v>1.877644406550016</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04617745343107039</v>
+        <v>1.83389630372271</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.850280740877139</v>
+        <v>4.531456207234861</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.83389630372271</v>
+        <v>1.202691673920948e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.531456207234861</v>
+        <v>141215902.8150134</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.202691673920948e-15</v>
+        <v>8.433360893767342e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>141215902.8150134</v>
+        <v>23.9839946255967</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.433360893767342e-07</v>
+        <v>0.0002400000790736895</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>23.9839946255967</v>
+        <v>12.66105732275497</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002400000790736895</v>
+        <v>1.168812540081966</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.66105732275497</v>
+        <v>0.03847258208292099</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.168812540081966</v>
+        <v>2.552412709622819</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03847258208292099</v>
+        <v>0.9558259496603212</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.552412709622819</v>
+        <v>1.514601287954317</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9558259496603212</v>
+        <v>19</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.514601287954317</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.5182799840099036</v>
       </c>
     </row>
@@ -6525,72 +6465,66 @@
         <v>5.575704574762658e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.220502503351605</v>
+        <v>2.201402802989016e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.449316880143793</v>
+        <v>2.615493257946913e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.201402802989016e-07</v>
+        <v>0.01070609568226864</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.615493257946913e-06</v>
+        <v>0.2198908457332595</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01070609568226864</v>
+        <v>0.04846323161502956</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2198908457332595</v>
+        <v>1.916865183525467</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04846323161502956</v>
+        <v>1.614892920627877</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.9060643361036</v>
+        <v>5.119186767400588</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.614892920627877</v>
+        <v>9.543101686515844e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.119186767400588</v>
+        <v>176363771.6149589</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.543101686515844e-16</v>
+        <v>6.824891809440787e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>176363771.6149589</v>
+        <v>29.68303520264382</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.824891809440787e-07</v>
+        <v>0.000229572873729842</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>29.68303520264382</v>
+        <v>14.116308294951</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000229572873729842</v>
+        <v>1.017637006528159</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>14.116308294951</v>
+        <v>0.04574702325182103</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.017637006528159</v>
+        <v>2.659003406695338</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.04574702325182103</v>
+        <v>0.9564043815365882</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.659003406695338</v>
+        <v>1.432148064162635</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9564043815365882</v>
+        <v>19</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.432148064162635</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.8788549062277186</v>
       </c>
     </row>
@@ -6605,72 +6539,66 @@
         <v>5.451806549483825e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-1.158815387723654</v>
+        <v>2.069926355562622e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2254794298394422</v>
+        <v>2.615988953382006e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.069926355562622e-07</v>
+        <v>0.007347673776393759</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.615988953382006e-06</v>
+        <v>0.222903484444693</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.007347673776393759</v>
+        <v>0.04973542954286192</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.222903484444693</v>
+        <v>1.909212850341243</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04973542954286192</v>
+        <v>1.758813166151117</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.899205300419273</v>
+        <v>4.272364118051066</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.758813166151117</v>
+        <v>6.581989528535331e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.272364118051066</v>
+        <v>259861880.8401577</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.581989528535331e-16</v>
+        <v>4.626678507855841e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>259861880.8401577</v>
+        <v>44.44698862837983</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.626678507855841e-07</v>
+        <v>0.0002254245734488433</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>44.44698862837983</v>
+        <v>14.50005443521149</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002254245734488433</v>
+        <v>0.9472857112229808</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>14.50005443521149</v>
+        <v>0.04739587242828286</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.9472857112229808</v>
+        <v>2.50302275946989</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.04739587242828286</v>
+        <v>0.9595249185195123</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.50302275946989</v>
+        <v>1.361401652382443</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9595249185195123</v>
+        <v>20</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.361401652382443</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.8423497188166899</v>
       </c>
     </row>
@@ -6685,72 +6613,66 @@
         <v>5.382942850482582e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.126377625143099</v>
+        <v>1.907693351416542e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.1150910419253446</v>
+        <v>2.616274289257028e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.907693351416542e-07</v>
+        <v>0.002830815906823944</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.616274289257028e-06</v>
+        <v>0.2224988688471419</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.002830815906823944</v>
+        <v>0.04950591713942217</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2224988688471419</v>
+        <v>1.894672700760779</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04950591713942217</v>
+        <v>1.86871974217498</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.876054593723389</v>
+        <v>4.117038441686898</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.86871974217498</v>
+        <v>5.96391393118397e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.117038441686898</v>
+        <v>287063913.5234029</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.96391393118397e-16</v>
+        <v>4.181180478452995e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>287063913.5234029</v>
+        <v>49.14604452679141</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.181180478452995e-07</v>
+        <v>0.000226411881012925</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>49.14604452679141</v>
+        <v>11.57480166357382</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000226411881012925</v>
+        <v>1.250247448055372</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.57480166357382</v>
+        <v>0.03033376576694878</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.250247448055372</v>
+        <v>2.673189895140957</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03033376576694878</v>
+        <v>0.9586020684401024</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.673189895140957</v>
+        <v>1.511573525084981</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9586020684401024</v>
+        <v>20</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.511573525084981</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5205029982490291</v>
       </c>
     </row>
@@ -6765,72 +6687,66 @@
         <v>5.389327787172082e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.12786297521311</v>
+        <v>1.84404463093983e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.1171487887834557</v>
+        <v>2.616241817934403e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.84404463093983e-07</v>
+        <v>-0.004486771884561621</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.616241817934403e-06</v>
+        <v>0.2161299353411457</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.004486771884561621</v>
+        <v>0.04671808518186936</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2161299353411457</v>
+        <v>1.896547250706787</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04671808518186936</v>
+        <v>1.928093235120131</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.879289279564627</v>
+        <v>3.900490414702083</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.928093235120131</v>
+        <v>6.644507279307524e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.900490414702083</v>
+        <v>262658172.1524431</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.644507279307524e-16</v>
+        <v>4.572631542586056e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>262658172.1524431</v>
+        <v>45.84000083595264</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.572631542586056e-07</v>
+        <v>0.0002088433049121186</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>45.84000083595264</v>
+        <v>9.734416772873605</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002088433049121186</v>
+        <v>1.532662863964418</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.734416772873605</v>
+        <v>0.01978975556132484</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.532662863964418</v>
+        <v>2.807704348132759</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01978975556132484</v>
+        <v>0.9586110875218438</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.807704348132759</v>
+        <v>1.473030097360071</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9586110875218438</v>
+        <v>20</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.473030097360071</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3156886399694706</v>
       </c>
     </row>
@@ -6845,72 +6761,66 @@
         <v>5.489679159912552e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.148791312092564</v>
+        <v>1.886431971937491e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.1467132360068431</v>
+        <v>2.615738196783554e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.886431971937491e-07</v>
+        <v>-0.01421609483508942</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.615738196783554e-06</v>
+        <v>0.2020067155836613</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01421609483508942</v>
+        <v>0.04098919311405129</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2020067155836613</v>
+        <v>1.889915984023637</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04098919311405129</v>
+        <v>1.9652458283037</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.871315709774</v>
+        <v>3.869679039825704</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.9652458283037</v>
+        <v>6.750739059540858e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.869679039825704</v>
+        <v>258304653.7348028</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.750739059540858e-16</v>
+        <v>4.643774509442473e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>258304653.7348028</v>
+        <v>45.0418046461144</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.643774509442473e-07</v>
+        <v>0.0001684341568734293</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>45.0418046461144</v>
+        <v>9.625205647654418</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001684341568734293</v>
+        <v>1.298515533502211</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.625205647654418</v>
+        <v>0.01560451235444451</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.298515533502211</v>
+        <v>2.84985281172192</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01560451235444451</v>
+        <v>0.9582415226544208</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.84985281172192</v>
+        <v>1.486428357857454</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9582415226544208</v>
+        <v>20</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.486428357857454</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.24906847996976</v>
       </c>
     </row>
@@ -6925,72 +6835,66 @@
         <v>5.677709949845051e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.155433534505778</v>
+        <v>1.947240074482032e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.08824362490800119</v>
+        <v>2.614645410831978e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.947240074482032e-07</v>
+        <v>-0.02496566933861543</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.614645410831978e-06</v>
+        <v>0.1804202009938846</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02496566933861543</v>
+        <v>0.03315000703820119</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1804202009938846</v>
+        <v>1.885979063706576</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03315000703820119</v>
+        <v>1.936875944616353</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.866416423363672</v>
+        <v>3.916559477223005</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.936875944616353</v>
+        <v>6.590096273567012e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.916559477223005</v>
+        <v>255642428.9906901</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.590096273567012e-16</v>
+        <v>4.688543738781322e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>255642428.9906901</v>
+        <v>43.06829011580967</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.688543738781322e-07</v>
+        <v>0.0001588669895570757</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>43.06829011580967</v>
+        <v>10.31576368848989</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001588669895570757</v>
+        <v>1.119252365835729</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.31576368848989</v>
+        <v>0.01690582759211889</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.119252365835729</v>
+        <v>2.687714822435655</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01690582759211889</v>
+        <v>0.9558032322308789</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.687714822435655</v>
+        <v>1.517514307910548</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9558032322308789</v>
+        <v>22</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.517514307910548</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2313215634467451</v>
       </c>
     </row>
@@ -7005,72 +6909,66 @@
         <v>5.923640302329768e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.124383508446149</v>
+        <v>2.009739801288988e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.07985400287492128</v>
+        <v>2.61289086646675e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.009739801288988e-07</v>
+        <v>-0.03500730427971943</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.61289086646675e-06</v>
+        <v>0.1556072540643229</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03500730427971943</v>
+        <v>0.02542227134472164</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1556072540643229</v>
+        <v>1.894727824654478</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02542227134472164</v>
+        <v>1.930296981173559</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.87368137830472</v>
+        <v>3.993564566644523</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.930296981173559</v>
+        <v>6.338402158102664e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.993564566644523</v>
+        <v>268284521.6891702</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.338402158102664e-16</v>
+        <v>4.474680198931341e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>268284521.6891702</v>
+        <v>45.62165390219705</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.474680198931341e-07</v>
+        <v>0.0001619470554087151</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>45.62165390219705</v>
+        <v>10.54367944800448</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001619470554087151</v>
+        <v>1.112853474625424</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.54367944800448</v>
+        <v>0.01800352075436528</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.112853474625424</v>
+        <v>2.571174983725589</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01800352075436528</v>
+        <v>0.9555216608439528</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.571174983725589</v>
+        <v>1.497124026641897</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9555216608439528</v>
+        <v>51</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.497124026641897</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2272943047380978</v>
       </c>
     </row>
@@ -7085,72 +6983,66 @@
         <v>6.186395111322377e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.064728156042982</v>
+        <v>2.066497572648907e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.283385544663227</v>
+        <v>2.610543423409564e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.066497572648907e-07</v>
+        <v>-0.04193221939705083</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.610543423409564e-06</v>
+        <v>0.1372629120335792</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04193221939705083</v>
+        <v>0.02059083862584083</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1372629120335792</v>
+        <v>1.892966532892058</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02059083862584083</v>
+        <v>1.942985803070318</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.875339266819258</v>
+        <v>4.110896512314858</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.942985803070318</v>
+        <v>5.981748144092984e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.110896512314858</v>
+        <v>277194808.3506165</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.981748144092984e-16</v>
+        <v>4.335843915891113e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>277194808.3506165</v>
+        <v>45.96193535045317</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.335843915891113e-07</v>
+        <v>0.0001627536727918339</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>45.96193535045317</v>
+        <v>9.557626351606164</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001627536727918339</v>
+        <v>1.202931051100675</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.557626351606164</v>
+        <v>0.01486725854837005</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.202931051100675</v>
+        <v>2.761795394046282</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01486725854837005</v>
+        <v>0.9532962753381516</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.761795394046282</v>
+        <v>1.499551199113343</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9532962753381516</v>
+        <v>51</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.499551199113343</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2221059268968927</v>
       </c>
     </row>
@@ -7165,72 +7057,66 @@
         <v>6.438766100417469e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.995336572781387</v>
+        <v>2.115653654728471e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4708283001372151</v>
+        <v>2.607736406408887e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.115653654728471e-07</v>
+        <v>-0.04656883101180303</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.607736406408887e-06</v>
+        <v>0.1241986455614038</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04656883101180303</v>
+        <v>0.01759001108598902</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1241986455614038</v>
+        <v>1.88302182278073</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01759001108598902</v>
+        <v>1.997213797241543</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.87297169987322</v>
+        <v>4.157304792267572</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.997213797241543</v>
+        <v>5.848944220611217e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.157304792267572</v>
+        <v>274007016.5725664</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.848944220611217e-16</v>
+        <v>4.354621957942279e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>274007016.5725664</v>
+        <v>43.91378262633399</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.354621957942279e-07</v>
+        <v>0.0001804647391960307</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>43.91378262633399</v>
+        <v>8.600738465856233</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001804647391960307</v>
+        <v>1.568283948893191</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.600738465856233</v>
+        <v>0.01334946440257978</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.568283948893191</v>
+        <v>2.852251833598103</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01334946440257978</v>
+        <v>0.9536096057173205</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.852251833598103</v>
+        <v>1.533387707237555</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9536096057173205</v>
+        <v>53</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.533387707237555</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2169910184250579</v>
       </c>
     </row>
@@ -7245,72 +7131,66 @@
         <v>6.670766677441877e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.9273259058084722</v>
+        <v>2.159756303365864e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.6310634957010488</v>
+        <v>2.604589581793494e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.159756303365864e-07</v>
+        <v>-0.04904351673021632</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.604589581793494e-06</v>
+        <v>0.1162111826885448</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04904351673021632</v>
+        <v>0.01590931784596749</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1162111826885448</v>
+        <v>1.87301700745251</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01590931784596749</v>
+        <v>2.031314679978061</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.865010917150468</v>
+        <v>4.181400860249598</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.031314679978061</v>
+        <v>5.781727287224983e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.181400860249598</v>
+        <v>278891328.8856503</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.781727287224983e-16</v>
+        <v>4.262128966502087e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>278891328.8856503</v>
+        <v>44.97049068787543</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.262128966502087e-07</v>
+        <v>0.0001698813028826198</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>44.97049068787543</v>
+        <v>8.847026744605181</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001698813028826198</v>
+        <v>1.42465479111808</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.847026744605181</v>
+        <v>0.01329658956796192</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.42465479111808</v>
+        <v>2.870932345946172</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01329658956796192</v>
+        <v>0.9559777472079377</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.870932345946172</v>
+        <v>1.523205259008463</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9559777472079377</v>
+        <v>39</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.523205259008463</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2239455417355378</v>
       </c>
     </row>
@@ -7325,72 +7205,66 @@
         <v>6.882136654403263e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.8633574517024313</v>
+        <v>2.191560519706742e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7700631204597466</v>
+        <v>2.601231472148317e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.191560519706742e-07</v>
+        <v>-0.0497806635317216</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.601231472148317e-06</v>
+        <v>0.1112218438235317</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0497806635317216</v>
+        <v>0.0148484326169346</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1112218438235317</v>
+        <v>1.876252472525231</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0148484326169346</v>
+        <v>2.119507753101838</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.865878918502949</v>
+        <v>4.152702517038822</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.119507753101838</v>
+        <v>5.86191570957068e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.152702517038822</v>
+        <v>278136946.2714824</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.86191570957068e-16</v>
+        <v>4.286758507269029e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>278136946.2714824</v>
+        <v>45.34787423645709</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.286758507269029e-07</v>
+        <v>0.0001581613034332432</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>45.34787423645709</v>
+        <v>10.08198762131674</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001581613034332432</v>
+        <v>1.151358257865431</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.08198762131674</v>
+        <v>0.01607653887992586</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.151358257865431</v>
+        <v>2.71524273059391</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01607653887992586</v>
+        <v>0.9585231683678279</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.71524273059391</v>
+        <v>1.501795877116196</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9585231683678279</v>
+        <v>34</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.501795877116196</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2331260430800083</v>
       </c>
     </row>
@@ -7405,72 +7279,66 @@
         <v>7.070794592926289e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.8013091061445748</v>
+        <v>2.198936180019504e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.8973915508652368</v>
+        <v>2.597765515852329e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.198936180019504e-07</v>
+        <v>-0.04940518475561865</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.597765515852329e-06</v>
+        <v>0.107649864814343</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04940518475561865</v>
+        <v>0.01402951511179167</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.107649864814343</v>
+        <v>1.876747296042063</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01402951511179167</v>
+        <v>2.036728685171238</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.861973955222944</v>
+        <v>4.029305871860807</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.036728685171238</v>
+        <v>6.226453342187978e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.029305871860807</v>
+        <v>265648040.201631</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.226453342187978e-16</v>
+        <v>4.502210686079569e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>265648040.201631</v>
+        <v>43.93938465942696</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.502210686079569e-07</v>
+        <v>0.0001587578177143095</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>43.93938465942696</v>
+        <v>10.31955115733134</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001587578177143095</v>
+        <v>1.13472832536223</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.31955115733134</v>
+        <v>0.01690661788700748</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.13472832536223</v>
+        <v>2.61114618501249</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01690661788700748</v>
+        <v>0.9591762847040483</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.61114618501249</v>
+        <v>1.516371559854152</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9591762847040483</v>
+        <v>34</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.516371559854152</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2357226992703947</v>
       </c>
     </row>
@@ -7485,72 +7353,66 @@
         <v>7.227836188285914e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.7391049531219954</v>
+        <v>2.198936180019504e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.019953403110756</v>
+        <v>2.594259342519401e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.198936180019504e-07</v>
+        <v>-0.048640461085562</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.594259342519401e-06</v>
+        <v>0.1050229179125246</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.048640461085562</v>
+        <v>0.01339541190236935</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1050229179125246</v>
+        <v>1.846353182200748</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01339541190236935</v>
+        <v>1.974648823238498</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.824681488619297</v>
+        <v>3.927886532186018</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.974648823238498</v>
+        <v>6.552142655903826e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.927886532186018</v>
+        <v>253602359.2592695</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>6.552142655903826e-16</v>
+        <v>4.678203859086181e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>253602359.2592695</v>
+        <v>42.13955289806182</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.678203859086181e-07</v>
+        <v>0.0001545099420045271</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>42.13955289806182</v>
+        <v>9.458351060322153</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001545099420045271</v>
+        <v>1.168254264624458</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.458351060322153</v>
+        <v>0.01382252195430524</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.168254264624458</v>
+        <v>2.795348421090872</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01382252195430524</v>
+        <v>0.95673142137756</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.795348421090872</v>
+        <v>1.531828679036393</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.95673142137756</v>
+        <v>35</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.531828679036393</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2421663259361164</v>
       </c>
     </row>
@@ -7565,72 +7427,66 @@
         <v>7.345879113529942e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.6784237507221451</v>
+        <v>2.198936180019504e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.13725472705147</v>
+        <v>2.590716812948e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.198936180019504e-07</v>
+        <v>-0.04861726944182607</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.590716812948e-06</v>
+        <v>0.1026238949095035</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04861726944182607</v>
+        <v>0.01289552632840046</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1026238949095035</v>
+        <v>1.83209635275292</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01289552632840046</v>
+        <v>1.822681935166426</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.797584533732387</v>
+        <v>4.002844571527341</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.822681935166426</v>
+        <v>8.221963346167335e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.002844571527341</v>
+        <v>203380639.3212365</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>8.221963346167335e-16</v>
+        <v>5.823590677762902e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>203380639.3212365</v>
+        <v>34.00906974162095</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.823590677762902e-07</v>
+        <v>0.0001661628787378989</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>34.00906974162095</v>
+        <v>8.365031824510416</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001661628787378989</v>
+        <v>1.517114538500461</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.365031824510416</v>
+        <v>0.0116270409698574</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.517114538500461</v>
+        <v>2.934683813550062</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0116270409698574</v>
+        <v>0.9579181356434301</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.934683813550062</v>
+        <v>1.635959401079804</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9579181356434301</v>
+        <v>35</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.635959401079804</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2613388254972412</v>
       </c>
     </row>
@@ -7645,72 +7501,66 @@
         <v>7.441925795772733e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.6207608725463754</v>
+        <v>2.189271892391936e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.243524455060115</v>
+        <v>2.587130040828202e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.189271892391936e-07</v>
+        <v>-0.04825727944517969</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.587130040828202e-06</v>
+        <v>0.10119165697952</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04825727944517969</v>
+        <v>0.01256826435777281</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.10119165697952</v>
+        <v>1.837905902054279</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01256826435777281</v>
+        <v>1.786221430027209</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.80224063560646</v>
+        <v>3.886492691862626</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.786221430027209</v>
+        <v>8.72162238877545e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.886492691862626</v>
+        <v>199904246.4741246</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>8.72162238877545e-16</v>
+        <v>5.94217153258581e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>199904246.4741246</v>
+        <v>34.85309250792544</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.94217153258581e-07</v>
+        <v>0.0001687131745858769</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>34.85309250792544</v>
+        <v>8.034230052216911</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001687131745858769</v>
+        <v>1.77771845231541</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.034230052216911</v>
+        <v>0.01089024182654012</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.77771845231541</v>
+        <v>3.069337322295701</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01089024182654012</v>
+        <v>0.9593278241090712</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.069337322295701</v>
+        <v>1.599720528879437</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9593278241090712</v>
+        <v>35</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.599720528879437</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.289894594332487</v>
       </c>
     </row>
@@ -7725,72 +7575,66 @@
         <v>7.541343211494685e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.5633125885887419</v>
+        <v>2.223581433535681e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.334162333544957</v>
+        <v>2.583547353116166e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.223581433535681e-07</v>
+        <v>-0.04735745816441941</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.583547353116166e-06</v>
+        <v>0.09974614313093269</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04735745816441941</v>
+        <v>0.01219089365363114</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.09974614313093269</v>
+        <v>1.834755197884003</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01219089365363114</v>
+        <v>1.760088492488488</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.796824709735391</v>
+        <v>4.231880881243505</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.760088492488488</v>
+        <v>7.135331023455604e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.231880881243505</v>
+        <v>243672410.706017</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>7.135331023455604e-16</v>
+        <v>4.879492349211762e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>243672410.706017</v>
+        <v>42.36691540091591</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.879492349211762e-07</v>
+        <v>0.0001314984521355345</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>42.36691540091591</v>
+        <v>8.450244697281791</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001314984521355345</v>
+        <v>1.274186029825144</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.450244697281791</v>
+        <v>0.009389862033084381</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.274186029825144</v>
+        <v>3.151989027472947</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.009389862033084381</v>
+        <v>0.9589152283396116</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.151989027472947</v>
+        <v>1.615996147811838</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9589152283396116</v>
+        <v>35</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.615996147811838</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2894795180670998</v>
       </c>
     </row>
@@ -7805,72 +7649,66 @@
         <v>7.65791300436843e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.5057018506403581</v>
+        <v>2.298967473679815e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.406625691961844</v>
+        <v>2.579994554786544e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.298967473679815e-07</v>
+        <v>-0.04613354532093338</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.579994554786544e-06</v>
+        <v>0.09787926363281174</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04613354532093338</v>
+        <v>0.01170693068129876</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.09787926363281174</v>
+        <v>1.856721586999623</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01170693068129876</v>
+        <v>2.077994804769288</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.830526753191585</v>
+        <v>4.139317655002636</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.077994804769288</v>
+        <v>6.097536289934318e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.139317655002636</v>
+        <v>277648650.2896799</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>6.097536289934318e-16</v>
+        <v>4.291624686311137e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>277648650.2896799</v>
+        <v>47.00515909608438</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.291624686311137e-07</v>
+        <v>0.0001244338855558621</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>47.00515909608438</v>
+        <v>8.840536266098223</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001244338855558621</v>
+        <v>1.188436785997993</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.840536266098223</v>
+        <v>0.009725140463520557</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.188436785997993</v>
+        <v>3.039212721131502</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.009725140463520557</v>
+        <v>0.9579685145741048</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.039212721131502</v>
+        <v>1.579114271000017</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9579685145741048</v>
+        <v>34</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.579114271000017</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2783250450677963</v>
       </c>
     </row>
@@ -7885,72 +7723,66 @@
         <v>7.797292337512801e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4495787768875038</v>
+        <v>2.381580969891301e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.460873677094232</v>
+        <v>2.576486231121506e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.381580969891301e-07</v>
+        <v>-0.0446922313185713</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.576486231121506e-06</v>
+        <v>0.09561816591683284</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.0446922313185713</v>
+        <v>0.01113837702780466</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.09561816591683284</v>
+        <v>1.868237888124657</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01113837702780466</v>
+        <v>1.846786635451919</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.852423294809992</v>
+        <v>4.246959214873764</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.846786635451919</v>
+        <v>5.792362386923361e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.246959214873764</v>
+        <v>289846333.342366</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.792362386923361e-16</v>
+        <v>4.117548576525759e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>289846333.342366</v>
+        <v>48.66215595965399</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.117548576525759e-07</v>
+        <v>0.0001239877317055728</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>48.66215595965399</v>
+        <v>8.764968468419015</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001239877317055728</v>
+        <v>1.223866599556944</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.764968468419015</v>
+        <v>0.009525316851596601</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.223866599556944</v>
+        <v>2.997944771655858</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.009525316851596601</v>
+        <v>0.9582646612400328</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.997944771655858</v>
+        <v>1.537659928342559</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9582646612400328</v>
+        <v>45</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.537659928342559</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2789963995468797</v>
       </c>
     </row>
@@ -7965,72 +7797,66 @@
         <v>7.959577476068628e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.3970730939083728</v>
+        <v>2.463689348061374e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.499013755842124</v>
+        <v>2.573025947746848e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.463689348061374e-07</v>
+        <v>-0.04320398224480426</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.573025947746848e-06</v>
+        <v>0.09319250386115652</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04320398224480426</v>
+        <v>0.01054988959982228</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.09319250386115652</v>
+        <v>1.863898322732548</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01054988959982228</v>
+        <v>1.887664773827913</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.849517423737056</v>
+        <v>4.49986479513906</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.887664773827913</v>
+        <v>5.159563662261257e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.49986479513906</v>
+        <v>317559141.825588</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.159563662261257e-16</v>
+        <v>3.752873160507315e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>317559141.825588</v>
+        <v>52.03100501947483</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.752873160507315e-07</v>
+        <v>0.0001236440871789239</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>52.03100501947483</v>
+        <v>7.918013781741103</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001236440871789239</v>
+        <v>1.265220847944947</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.918013781741103</v>
+        <v>0.007751858904969782</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.265220847944947</v>
+        <v>3.160210871084119</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007751858904969782</v>
+        <v>0.9556599545917503</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.160210871084119</v>
+        <v>1.575766037520904</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9556599545917503</v>
+        <v>45</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.575766037520904</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.275324214539624</v>
       </c>
     </row>
@@ -8045,72 +7871,66 @@
         <v>8.140968939521787e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3494013983890057</v>
+        <v>2.540901473951766e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.52447325450175</v>
+        <v>2.569604538222441e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.540901473951766e-07</v>
+        <v>-0.04187695624037816</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.569604538222441e-06</v>
+        <v>0.09085640082513802</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04187695624037816</v>
+        <v>0.01000759430745723</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.09085640082513802</v>
+        <v>1.867244628725237</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01000759430745723</v>
+        <v>2.047095296199087</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.856467965628493</v>
+        <v>4.580952447080609</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.047095296199087</v>
+        <v>4.978520941246617e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.580952447080609</v>
+        <v>331829623.1534216</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.978520941246617e-16</v>
+        <v>3.589027381027476e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>331829623.1534216</v>
+        <v>54.81894155459499</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.589027381027476e-07</v>
+        <v>0.0001400366231386722</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>54.81894155459499</v>
+        <v>7.519259201373576</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001400366231386722</v>
+        <v>1.658659662460505</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.519259201373576</v>
+        <v>0.00791756689636226</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.658659662460505</v>
+        <v>3.199166585389351</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.00791756689636226</v>
+        <v>0.9562966762370854</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.199166585389351</v>
+        <v>1.596416654547876</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9562966762370854</v>
+        <v>45</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.596416654547876</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2623412983955578</v>
       </c>
     </row>
@@ -8125,72 +7945,66 @@
         <v>8.335204742019216e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.3061956794135827</v>
+        <v>2.607759222341273e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.541087020051238</v>
+        <v>2.566197996863219e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.607759222341273e-07</v>
+        <v>-0.04093275608880789</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.566197996863219e-06</v>
+        <v>0.08873788747169066</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04093275608880789</v>
+        <v>0.009549597584187077</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.08873788747169066</v>
+        <v>1.867670461473103</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.009549597584187077</v>
+        <v>2.061002372752814</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.854931696232325</v>
+        <v>4.539181832022477</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.061002372752814</v>
+        <v>5.070569560979416e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.539181832022477</v>
+        <v>327283763.4537806</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.070569560979416e-16</v>
+        <v>3.642747085280565e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>327283763.4537806</v>
+        <v>54.31323437614802</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.642747085280565e-07</v>
+        <v>0.0001379627824054448</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>54.31323437614802</v>
+        <v>8.121393134476037</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001379627824054448</v>
+        <v>1.444490310002225</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.121393134476037</v>
+        <v>0.009099614887502317</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.444490310002225</v>
+        <v>3.158042752601443</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.009099614887502317</v>
+        <v>0.9578245522646297</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.158042752601443</v>
+        <v>1.546774937116038</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9578245522646297</v>
+        <v>43</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.546774937116038</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2559722134418934</v>
       </c>
     </row>
@@ -8205,72 +8019,66 @@
         <v>8.533937277177904e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2655321034955418</v>
+        <v>2.664185529882554e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.552201249816396</v>
+        <v>2.56276087504774e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.664185529882554e-07</v>
+        <v>-0.04068906363101877</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.56276087504774e-06</v>
+        <v>0.08668699396153814</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04068906363101877</v>
+        <v>0.009170207931091945</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.08668699396153814</v>
+        <v>1.867535161000731</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.009170207931091945</v>
+        <v>2.001682128292943</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.856398514951505</v>
+        <v>4.519962065441058</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.001682128292943</v>
+        <v>5.113783358454739e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.519962065441058</v>
+        <v>328508537.9722725</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.113783358454739e-16</v>
+        <v>3.636526182684045e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>328508537.9722725</v>
+        <v>55.18685540969097</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>3.636526182684045e-07</v>
+        <v>0.0001281994949280982</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>55.18685540969097</v>
+        <v>9.135742676615125</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001281994949280982</v>
+        <v>1.170275540636383</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.135742676615125</v>
+        <v>0.01069975986906936</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.170275540636383</v>
+        <v>3.007327741843564</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01069975986906936</v>
+        <v>0.9585144384298256</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.007327741843564</v>
+        <v>1.515291617474182</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9585144384298256</v>
+        <v>14</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.515291617474182</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2607965681390392</v>
       </c>
     </row>
@@ -8285,72 +8093,66 @@
         <v>8.730556565564406e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.2255958137814851</v>
+        <v>2.716575746415075e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.559236455988801</v>
+        <v>2.559245540768181e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.716575746415075e-07</v>
+        <v>-0.04077258466050598</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.559245540768181e-06</v>
+        <v>0.08461384271917552</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04077258466050598</v>
+        <v>0.008821862445063803</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.08461384271917552</v>
+        <v>1.867896574086861</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.008821862445063803</v>
+        <v>1.983694088200614</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.84952068833692</v>
+        <v>4.53704131681192</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.983694088200614</v>
+        <v>5.075355142953302e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.53704131681192</v>
+        <v>349913612.9038333</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.075355142953302e-16</v>
+        <v>3.427551978462553e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>349913612.9038333</v>
+        <v>62.14241312528165</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.427551978462553e-07</v>
+        <v>0.000126879620225891</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>62.14241312528165</v>
+        <v>8.965507460584325</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000126879620225891</v>
+        <v>1.193679008738313</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.965507460584325</v>
+        <v>0.0101986249860267</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.193679008738313</v>
+        <v>3.000804296223793</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0101986249860267</v>
+        <v>0.9595441926381951</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.000804296223793</v>
+        <v>1.545686958183311</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9595441926381951</v>
+        <v>23</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.545686958183311</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2595332856897841</v>
       </c>
     </row>
@@ -8365,72 +8167,66 @@
         <v>8.924012567532874e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.1862014876331439</v>
+        <v>2.773233538549978e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.561746146197202</v>
+        <v>2.555632267913556e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.773233538549978e-07</v>
+        <v>-0.04116745686761603</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.555632267913556e-06</v>
+        <v>0.08253426400465022</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04116745686761603</v>
+        <v>0.008506567023748692</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.08253426400465022</v>
+        <v>1.86637619706261</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.008506567023748692</v>
+        <v>2.018091081842779</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.848249073358908</v>
+        <v>4.540390761685398</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.018091081842779</v>
+        <v>5.067869729098629e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.540390761685398</v>
+        <v>347926615.5139577</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>5.067869729098629e-16</v>
+        <v>3.445520319366697e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>347926615.5139577</v>
+        <v>61.34804784659541</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>3.445520319366697e-07</v>
+        <v>0.0001271536890240007</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>61.34804784659541</v>
+        <v>8.27343878707951</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001271536890240007</v>
+        <v>1.258165341691934</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.27343878707951</v>
+        <v>0.008703643230491397</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.258165341691934</v>
+        <v>3.114594314310449</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008703643230491397</v>
+        <v>0.958920594880695</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.114594314310449</v>
+        <v>1.558785128523846</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.958920594880695</v>
+        <v>34</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.558785128523846</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2686392863660813</v>
       </c>
     </row>
@@ -8445,72 +8241,66 @@
         <v>9.110982910818476e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.1468840999596576</v>
+        <v>2.826448281672463e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.558914428169146</v>
+        <v>2.551878684661793e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.826448281672463e-07</v>
+        <v>-0.0421861044600302</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.551878684661793e-06</v>
+        <v>0.07991959041366214</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.0421861044600302</v>
+        <v>0.008166418753343426</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.07991959041366214</v>
+        <v>1.87418608548108</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.008166418753343426</v>
+        <v>1.997943821536442</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.853967309201471</v>
+        <v>4.546698814737811</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.997943821536442</v>
+        <v>5.053817241316914e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.546698814737811</v>
+        <v>361897945.6798156</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5.053817241316914e-16</v>
+        <v>3.32819238943584e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>361897945.6798156</v>
+        <v>66.18990661558472</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>3.32819238943584e-07</v>
+        <v>0.0001403093424283206</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>66.18990661558472</v>
+        <v>7.94225709923852</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001403093424283206</v>
+        <v>1.47954214164454</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.94225709923852</v>
+        <v>0.008850635845825631</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.47954214164454</v>
+        <v>3.164751637439814</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.008850635845825631</v>
+        <v>0.9576946682168206</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.164751637439814</v>
+        <v>1.528490486749656</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9576946682168206</v>
+        <v>34</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.528490486749656</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2987244066434209</v>
       </c>
     </row>
@@ -8525,72 +8315,66 @@
         <v>9.28279382770982e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.1067873707767344</v>
+        <v>2.872700032468135e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.55010270760077</v>
+        <v>2.547920641593206e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.872700032468135e-07</v>
+        <v>-0.04393240558961486</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.547920641593206e-06</v>
+        <v>0.07618122427784443</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.04393240558961486</v>
+        <v>0.00773289797149869</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.07618122427784443</v>
+        <v>1.87232052960652</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.00773289797149869</v>
+        <v>1.885726415125307</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.854156759640373</v>
+        <v>4.648267686244381</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.885726415125307</v>
+        <v>4.835369252622902e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.648267686244381</v>
+        <v>374414846.9844824</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>4.835369252622902e-16</v>
+        <v>3.208442590681441e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>374414846.9844824</v>
+        <v>67.78533836256334</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>3.208442590681441e-07</v>
+        <v>0.0001658320944320959</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>67.78533836256334</v>
+        <v>8.909221528683894</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001658320944320959</v>
+        <v>1.500242277928995</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.909221528683894</v>
+        <v>0.01316279451415853</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.500242277928995</v>
+        <v>3.098547948004702</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01316279451415853</v>
+        <v>0.9572246564923791</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.098547948004702</v>
+        <v>1.565357639329175</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9572246564923791</v>
+        <v>34</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.565357639329175</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.4015181578413415</v>
       </c>
     </row>
@@ -8605,72 +8389,66 @@
         <v>9.430033001986341e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.06592227562256786</v>
+        <v>2.908455646754947e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.535721764000515</v>
+        <v>2.543726236949182e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.908455646754947e-07</v>
+        <v>-0.04558975351217089</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.543726236949182e-06</v>
+        <v>0.07254369288442004</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.04558975351217089</v>
+        <v>0.007340715112199477</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.07254369288442004</v>
+        <v>1.866687643797001</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.007340715112199477</v>
+        <v>1.789216378662353</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.854352199913974</v>
+        <v>5.062063752703473</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.789216378662353</v>
+        <v>4.077149951864933e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.062063752703473</v>
+        <v>436075263.9680111</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>4.077149951864933e-16</v>
+        <v>2.754151459592214e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>436075263.9680111</v>
+        <v>77.53175044310632</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.754151459592214e-07</v>
+        <v>0.0001711862817770071</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>77.53175044310632</v>
+        <v>12.2358741885189</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001711862817770071</v>
+        <v>1.052936684522994</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>12.2358741885189</v>
+        <v>0.02562943101138351</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.052936684522994</v>
+        <v>2.950050730707101</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02562943101138351</v>
+        <v>0.9572894757319513</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.950050730707101</v>
+        <v>1.554703283751366</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9572894757319513</v>
+        <v>34</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.554703283751366</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.6778735640085201</v>
       </c>
     </row>
@@ -8685,72 +8463,66 @@
         <v>9.549893015627664e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.02475735588982909</v>
+        <v>2.933733745183196e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.517682868508315</v>
+        <v>2.539340647540779e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.933733745183196e-07</v>
+        <v>-0.04672360899654013</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.539340647540779e-06</v>
+        <v>0.06993070896702866</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.04672360899654013</v>
+        <v>0.007073328878059584</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.06993070896702866</v>
+        <v>1.901412342853033</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.007073328878059584</v>
+        <v>2.22499648564566</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.907232805439985</v>
+        <v>4.4894718703562</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.22499648564566</v>
+        <v>3.527778247801337e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.4894718703562</v>
+        <v>503231110.5497347</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.527778247801337e-16</v>
+        <v>2.401334639412519e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>503231110.5497347</v>
+        <v>89.33800337347769</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.401334639412519e-07</v>
+        <v>0.0001852230277785861</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>89.33800337347769</v>
+        <v>11.96735581117239</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001852230277785861</v>
+        <v>1.17001542467831</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>11.96735581117239</v>
+        <v>0.02652719844989467</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.17001542467831</v>
+        <v>3.056317573467151</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02652719844989467</v>
+        <v>0.9579058374824868</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.056317573467151</v>
+        <v>1.385388676948402</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9579058374824868</v>
+        <v>33</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.385388676948402</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.7435997476911528</v>
       </c>
     </row>
@@ -9127,7 +8899,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.789537891971954</v>
+        <v>1.780394405302169</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.216879667802519</v>
@@ -9216,7 +8988,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.822413564074116</v>
+        <v>1.80567795906102</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.126765869662223</v>
@@ -9305,7 +9077,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.824128263710206</v>
+        <v>1.814374168430095</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.974190506340484</v>
@@ -9394,7 +9166,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.832589777926705</v>
+        <v>1.816848506201179</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.297068844710995</v>
@@ -9483,7 +9255,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.835453313527657</v>
+        <v>1.818079466471386</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.162801996268875</v>
@@ -9572,7 +9344,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.836493014790038</v>
+        <v>1.815971710510452</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.442414835693842</v>
@@ -9661,7 +9433,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.853860986539036</v>
+        <v>1.822102751925175</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.386214140110428</v>
@@ -9750,7 +9522,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.84229191635475</v>
+        <v>1.812272713510658</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.514252857312735</v>
@@ -9839,7 +9611,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.842566683726135</v>
+        <v>1.817526583692323</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.283442306165893</v>
@@ -9928,7 +9700,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.851070562640103</v>
+        <v>1.826062357486075</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.818675185653241</v>
@@ -10017,7 +9789,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.860422300470681</v>
+        <v>1.837944473106773</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.288244190463597</v>
@@ -10106,7 +9878,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.861863835803187</v>
+        <v>1.840704907187521</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.2880520099999</v>
@@ -10195,7 +9967,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.828597506327335</v>
+        <v>1.819209283074552</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.624075521637281</v>
@@ -10284,7 +10056,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.828279205057486</v>
+        <v>1.822484777923036</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.39171052084268</v>
@@ -10373,7 +10145,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.824724285727863</v>
+        <v>1.824164757949489</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.305020084969649</v>
@@ -10462,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.839360149029425</v>
+        <v>1.837392517631374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.302302814952178</v>
@@ -10551,7 +10323,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.839985764969491</v>
+        <v>1.837297839923011</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.244729068201071</v>
@@ -10640,7 +10412,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.831723064352855</v>
+        <v>1.827152265733247</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.347506682247816</v>
@@ -10729,7 +10501,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.849277311475853</v>
+        <v>1.843626109935507</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.54340228961738</v>
@@ -10818,7 +10590,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.841179293632695</v>
+        <v>1.83790055528446</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.729733776862702</v>
@@ -10907,7 +10679,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.84158530913824</v>
+        <v>1.838499897519675</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.390497177407813</v>
@@ -10996,7 +10768,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.854850209826467</v>
+        <v>1.852355315149682</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.74477658570723</v>
@@ -11085,7 +10857,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.864343579080541</v>
+        <v>1.85844290577473</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.522390265819115</v>
@@ -11174,7 +10946,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.837898263036742</v>
+        <v>1.834852630145063</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.364702592097684</v>
@@ -11263,7 +11035,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.836513095042702</v>
+        <v>1.833524629490786</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.312328264281969</v>
@@ -11352,7 +11124,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.844848748262041</v>
+        <v>1.837428743837645</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.157529404717772</v>
@@ -11441,7 +11213,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.836954007390578</v>
+        <v>1.825631510906846</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.077362551294051</v>
@@ -11530,7 +11302,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.846720157653665</v>
+        <v>1.82963610786618</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.17605294614193</v>
@@ -11619,7 +11391,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.84862739502031</v>
+        <v>1.829863797694877</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.398141463208268</v>
@@ -11708,7 +11480,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.845405538143559</v>
+        <v>1.819755492396132</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.400480771253533</v>
@@ -11797,7 +11569,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.831571878928494</v>
+        <v>1.80524460684129</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.24071043809365</v>
@@ -11886,7 +11658,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.799432305111843</v>
+        <v>1.774452741816347</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.930908114359327</v>
@@ -11975,7 +11747,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.802365894803925</v>
+        <v>1.775155362950408</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.174863502210713</v>
@@ -12064,7 +11836,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.807808014548049</v>
+        <v>1.777839222884942</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.006391512383319</v>
@@ -12153,7 +11925,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.813867650141155</v>
+        <v>1.78378342632285</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.968376963811056</v>
@@ -12242,7 +12014,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.810863913365326</v>
+        <v>1.783934964283714</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.23180199303782</v>
@@ -12331,7 +12103,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.809255574320879</v>
+        <v>1.782834909009696</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.083315089953554</v>
@@ -12420,7 +12192,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.809631561745174</v>
+        <v>1.785711683178542</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.987372763167049</v>
@@ -12509,7 +12281,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.837782979521636</v>
+        <v>1.815214311273325</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.055735701268437</v>
@@ -12598,7 +12370,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.838580977162204</v>
+        <v>1.808024274496738</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.369485216930758</v>
@@ -12687,7 +12459,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.817587568484101</v>
+        <v>1.791644211156144</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.267668804091932</v>
@@ -12776,7 +12548,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.80666270393762</v>
+        <v>1.783367897765969</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.154998521279466</v>
@@ -12865,7 +12637,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.834709950530454</v>
+        <v>1.804717694984299</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.013611507702693</v>
@@ -12954,7 +12726,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.822514569029461</v>
+        <v>1.789542043758271</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.066434541737508</v>
@@ -13043,7 +12815,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.822989791007207</v>
+        <v>1.793149823367254</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.793506110314874</v>
@@ -13132,7 +12904,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.837288061950736</v>
+        <v>1.808180693242709</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.523724930737972</v>
@@ -13221,7 +12993,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.843880924562119</v>
+        <v>1.818694064164082</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.177084323646146</v>
@@ -13310,7 +13082,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.828061942740838</v>
+        <v>1.80355951919105</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.56439469156219</v>
@@ -13399,7 +13171,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.812618559781758</v>
+        <v>1.797546778306359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.345270081466765</v>
@@ -13488,7 +13260,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.813104581247029</v>
+        <v>1.794979445355638</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.487130009151416</v>
@@ -13577,7 +13349,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.809264719649889</v>
+        <v>1.787415124016178</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.601485892571298</v>
@@ -13666,7 +13438,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.794479828765073</v>
+        <v>1.773697755868188</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.54507330151095</v>
@@ -13755,7 +13527,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.764863825791376</v>
+        <v>1.750750652368378</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.422564049514684</v>
@@ -13844,7 +13616,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.763576226083013</v>
+        <v>1.742491195369782</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.246227103532239</v>
@@ -13933,7 +13705,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.747383626119003</v>
+        <v>1.733073843329403</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.270093907916646</v>
@@ -14022,7 +13794,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.752064028516743</v>
+        <v>1.741153841991498</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.311953784936315</v>
@@ -14111,7 +13883,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.752036645280876</v>
+        <v>1.741465466695914</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.594141564074941</v>
@@ -14200,7 +13972,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.74841312859776</v>
+        <v>1.735134936522301</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.26423851414414</v>
@@ -14289,7 +14061,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.736810911480649</v>
+        <v>1.727587940483676</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.179108249427722</v>
@@ -14378,7 +14150,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.714459321294316</v>
+        <v>1.711194613325856</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.032353247602986</v>
@@ -14467,7 +14239,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.703129843530521</v>
+        <v>1.695511868195021</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.291632021954135</v>
@@ -14556,7 +14328,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.698028357004304</v>
+        <v>1.689491575141753</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.315641768109211</v>
@@ -14645,7 +14417,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.721595919797539</v>
+        <v>1.708164803613126</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.376131538403959</v>
@@ -14734,7 +14506,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.687654757908972</v>
+        <v>1.680864377659582</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.163997643849155</v>
@@ -14823,7 +14595,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.670510719310237</v>
+        <v>1.664352528883289</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.808016363029559</v>
@@ -14912,7 +14684,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.671119021216568</v>
+        <v>1.666637877690429</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.926147284050539</v>
@@ -15001,7 +14773,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.687212313284698</v>
+        <v>1.676058412287379</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.944779456179907</v>
@@ -15090,7 +14862,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.696394927384885</v>
+        <v>1.684660168788786</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.997021357793126</v>
@@ -15179,7 +14951,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.674173561641989</v>
+        <v>1.665554008889589</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.71757379541131</v>
@@ -15268,7 +15040,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.682451431640846</v>
+        <v>1.670027809531211</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.013993912676144</v>
@@ -15357,7 +15129,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.669709234600572</v>
+        <v>1.648981388569688</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.769196227604567</v>
@@ -15446,7 +15218,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.653468769303905</v>
+        <v>1.633234154785792</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.779904908091661</v>
@@ -15535,7 +15307,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.648778182164732</v>
+        <v>1.634511058136658</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.943882370647683</v>
@@ -15624,7 +15396,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.660047677788023</v>
+        <v>1.644171932917387</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.823395612074594</v>
@@ -15713,7 +15485,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.651130661217514</v>
+        <v>1.633104208094659</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.629108474034219</v>
@@ -15802,7 +15574,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.624341193594797</v>
+        <v>1.614903496105354</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.572579597843052</v>
@@ -15891,7 +15663,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.63314483416039</v>
+        <v>1.620868114475997</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.762565822088892</v>
@@ -15980,7 +15752,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.629539330588466</v>
+        <v>1.614700016345169</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.805031195915121</v>
@@ -16069,7 +15841,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.658358939244539</v>
+        <v>1.634845373710604</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.669538039407244</v>
@@ -16158,7 +15930,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.659792674398826</v>
+        <v>1.63624485151639</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.782422652499465</v>
@@ -16247,7 +16019,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.649408996929984</v>
+        <v>1.630369564362204</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.868269039934912</v>
@@ -16533,7 +16305,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.544815053091357</v>
+        <v>1.549683168954366</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.420720391967883</v>
@@ -16622,7 +16394,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555909579328437</v>
+        <v>1.56045453488523</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.224932093300852</v>
@@ -16711,7 +16483,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.561056043812789</v>
+        <v>1.559593806128141</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.230565032566648</v>
@@ -16800,7 +16572,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.641725806061269</v>
+        <v>1.637384653128888</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.233115928567106</v>
@@ -16889,7 +16661,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.663185517145166</v>
+        <v>1.659454458717258</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.226499990164958</v>
@@ -16978,7 +16750,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.676209583516145</v>
+        <v>1.671969370536784</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.325575076863729</v>
@@ -17067,7 +16839,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.735047568132411</v>
+        <v>1.720741684471865</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.514537872243248</v>
@@ -17156,7 +16928,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.734207936789795</v>
+        <v>1.723548715839628</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.625425168718597</v>
@@ -17245,7 +17017,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.732263676712556</v>
+        <v>1.723443574883698</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.620297095315267</v>
@@ -17334,7 +17106,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.735838707457995</v>
+        <v>1.72450762180769</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.121352759064046</v>
@@ -17423,7 +17195,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.744089924549481</v>
+        <v>1.731885673513744</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.684298541339513</v>
@@ -17512,7 +17284,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736259112892167</v>
+        <v>1.723581866655891</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.024480211079011</v>
@@ -17601,7 +17373,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.682000384056353</v>
+        <v>1.683745000221013</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.558374406221574</v>
@@ -17690,7 +17462,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.668947351092637</v>
+        <v>1.67094447893943</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.509658936744525</v>
@@ -17779,7 +17551,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670564284996791</v>
+        <v>1.671674078991559</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.492120411246178</v>
@@ -17868,7 +17640,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.67236664640359</v>
+        <v>1.674312750421952</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.54933830450726</v>
@@ -17957,7 +17729,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.668056707280575</v>
+        <v>1.666201764329231</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.54835147973565</v>
@@ -18046,7 +17818,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.660100163705755</v>
+        <v>1.651995559320441</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.671889397250807</v>
@@ -18135,7 +17907,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.638874533008469</v>
+        <v>1.635252892645768</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.601401238701087</v>
@@ -18224,7 +17996,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617422850425175</v>
+        <v>1.618150717812758</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.477899825045755</v>
@@ -18313,7 +18085,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.61213195780821</v>
+        <v>1.61150404804702</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.587786544903858</v>
@@ -18402,7 +18174,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.618797887130041</v>
+        <v>1.620386776914941</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.483640205701262</v>
@@ -18491,7 +18263,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610162869988033</v>
+        <v>1.610692728874829</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.435151270410483</v>
@@ -18580,7 +18352,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593636273882764</v>
+        <v>1.592207953072069</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.587214125908052</v>
@@ -18669,7 +18441,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.588165766954334</v>
+        <v>1.585944203138724</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.527520679097164</v>
@@ -18758,7 +18530,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593767878167918</v>
+        <v>1.592420946768502</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.489761368596995</v>
@@ -18847,7 +18619,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.603665462530489</v>
+        <v>1.599626032733465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.544248170899562</v>
@@ -18936,7 +18708,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639254982645521</v>
+        <v>1.625888753088583</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.578071374792519</v>
@@ -19025,7 +18797,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644526752797154</v>
+        <v>1.631451345673183</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.594319669082691</v>
@@ -19114,7 +18886,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.634502831473675</v>
+        <v>1.615857607577647</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.604018895980823</v>
@@ -19203,7 +18975,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626748322512892</v>
+        <v>1.609457600037934</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.810225079501118</v>
@@ -19292,7 +19064,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625210877627856</v>
+        <v>1.610017901900947</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.747164782336248</v>
@@ -19381,7 +19153,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.640792329293919</v>
+        <v>1.625328092914295</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.155156885874282</v>
@@ -19470,7 +19242,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642735158634995</v>
+        <v>1.623935119189506</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.014893755538701</v>
@@ -19559,7 +19331,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647671370106619</v>
+        <v>1.625284200903703</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.049237862024694</v>
@@ -19648,7 +19420,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.643668214930351</v>
+        <v>1.62187454109828</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.962567704297424</v>
@@ -19737,7 +19509,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.638003846966725</v>
+        <v>1.61447259237975</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.058627846168148</v>
@@ -19826,7 +19598,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.657922470140148</v>
+        <v>1.632954903146215</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.211861213273932</v>
@@ -19915,7 +19687,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.683660893902142</v>
+        <v>1.654214583312978</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.200889234420191</v>
@@ -20004,7 +19776,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.692759924464377</v>
+        <v>1.664428937783838</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.008532363913459</v>
@@ -20093,7 +19865,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.6836576251657</v>
+        <v>1.658033524685282</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.120810057005373</v>
@@ -20182,7 +19954,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647117392586123</v>
+        <v>1.628105109907028</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.69019039194227</v>
@@ -20271,7 +20043,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65659354128937</v>
+        <v>1.641720458119398</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.71555858309208</v>
@@ -20360,7 +20132,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.648253318824751</v>
+        <v>1.631754555146862</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.672505232576653</v>
@@ -20449,7 +20221,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.657662699975461</v>
+        <v>1.645847527368351</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.842167679301891</v>
@@ -20538,7 +20310,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.653934459292378</v>
+        <v>1.642285157707293</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.615979271855766</v>
@@ -20627,7 +20399,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.634500992307138</v>
+        <v>1.627805831947881</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.864086039359136</v>
@@ -20716,7 +20488,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.634861094327158</v>
+        <v>1.630386625349623</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.745230336506057</v>
@@ -20805,7 +20577,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.617866295769716</v>
+        <v>1.617303569144826</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.612900822942811</v>
@@ -20894,7 +20666,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.590633078717828</v>
+        <v>1.591111996973506</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.682687557351289</v>
@@ -20983,7 +20755,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.565669680872008</v>
+        <v>1.567596186715609</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.806001180052185</v>
@@ -21072,7 +20844,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.545692832169667</v>
+        <v>1.54535075107604</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.763225025319268</v>
@@ -21161,7 +20933,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.539516934078954</v>
+        <v>1.542950836389353</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.78546555929957</v>
@@ -21250,7 +21022,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.543284422899369</v>
+        <v>1.547264776755871</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.81400069225999</v>
@@ -21339,7 +21111,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.534196727757253</v>
+        <v>1.537491854291179</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.79085950572093</v>
@@ -21428,7 +21200,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.532460229399467</v>
+        <v>1.534834075687391</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.952895161091872</v>
@@ -21517,7 +21289,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.542840825347998</v>
+        <v>1.544887857924456</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.843145875891354</v>
@@ -21606,7 +21378,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546854763235935</v>
+        <v>1.549394623157132</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.889744679984208</v>
@@ -21695,7 +21467,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.55409423160733</v>
+        <v>1.556086505114631</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.746537838651685</v>
@@ -21784,7 +21556,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.543977858521512</v>
+        <v>1.546158836326857</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.908437015874812</v>
@@ -21873,7 +21645,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.545646795519315</v>
+        <v>1.54655068398867</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.865746109237687</v>
@@ -21962,7 +21734,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.557657563206064</v>
+        <v>1.556695639957519</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.857971905448301</v>
@@ -22051,7 +21823,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.563505879015441</v>
+        <v>1.561814050233462</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.782533173964683</v>
@@ -22140,7 +21912,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.563364139983649</v>
+        <v>1.561612348819849</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.883059715203331</v>
@@ -22229,7 +22001,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.591924424742771</v>
+        <v>1.590664589023749</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.882017156345928</v>
@@ -22318,7 +22090,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.624880824895414</v>
+        <v>1.620235402472371</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.716174173419023</v>
@@ -22407,7 +22179,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.651973118733707</v>
+        <v>1.648929179538532</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.018569698974801</v>
@@ -22496,7 +22268,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.643714677090185</v>
+        <v>1.638820781926548</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.865092661528769</v>
@@ -22585,7 +22357,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.645649211115242</v>
+        <v>1.643282116123775</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.603954017905383</v>
@@ -22674,7 +22446,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.653851129906242</v>
+        <v>1.650812385047695</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.078339696488355</v>
@@ -22763,7 +22535,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.654923479211042</v>
+        <v>1.644611144172287</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.881391608918862</v>
@@ -22852,7 +22624,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.66105557676433</v>
+        <v>1.652817872649373</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.035057873971888</v>
@@ -22941,7 +22713,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.663140512761611</v>
+        <v>1.653111317362008</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.066295852908803</v>
@@ -23030,7 +22802,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.646453828310526</v>
+        <v>1.640495258873065</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.759081991098243</v>
@@ -23119,7 +22891,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.632240545684004</v>
+        <v>1.628160218251925</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.689460616349285</v>
@@ -23208,7 +22980,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.63231811168767</v>
+        <v>1.63039649381234</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.649563074012092</v>
@@ -23297,7 +23069,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.639708082981696</v>
+        <v>1.631748516087856</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.816592981623638</v>
@@ -23386,7 +23158,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.623942825291342</v>
+        <v>1.617369046032055</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.80072101829798</v>
@@ -23475,7 +23247,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.638750434259455</v>
+        <v>1.627223857179554</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.681224779175877</v>
@@ -23564,7 +23336,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.632239798833512</v>
+        <v>1.624811624359108</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.607972963066114</v>
@@ -23653,7 +23425,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.639787744704756</v>
+        <v>1.634640712285006</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.811253806063486</v>
@@ -23939,7 +23711,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.653079344291987</v>
+        <v>1.642019226489348</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.089027689249348</v>
@@ -24028,7 +23800,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.660374524225549</v>
+        <v>1.643573456952633</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.970331212624667</v>
@@ -24117,7 +23889,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.664114562284787</v>
+        <v>1.645699338169689</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.98485816292873</v>
@@ -24206,7 +23978,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.678992978424992</v>
+        <v>1.657433863078641</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.440567543221812</v>
@@ -24295,7 +24067,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.680637803276816</v>
+        <v>1.663642636666174</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.965202255853344</v>
@@ -24384,7 +24156,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.678670057628219</v>
+        <v>1.658475887648693</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.013659556165908</v>
@@ -24473,7 +24245,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.697813061858701</v>
+        <v>1.671760281203388</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.098109315644892</v>
@@ -24562,7 +24334,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679202581742736</v>
+        <v>1.662008413821493</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.172961042509435</v>
@@ -24651,7 +24423,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.676403368299</v>
+        <v>1.663424476702421</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.21060194349929</v>
@@ -24740,7 +24512,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.674915204701976</v>
+        <v>1.660277541993294</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.747449370921992</v>
@@ -24829,7 +24601,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.690549680046533</v>
+        <v>1.672747368811658</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.735940723438463</v>
@@ -24918,7 +24690,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.689906431153463</v>
+        <v>1.671165796318586</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.042907435893481</v>
@@ -25007,7 +24779,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.65078118373072</v>
+        <v>1.641896074934935</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.817014062449897</v>
@@ -25096,7 +24868,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.652791541953176</v>
+        <v>1.644996817390274</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.566005197124533</v>
@@ -25185,7 +24957,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.659884694105464</v>
+        <v>1.647877296163711</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.6593120209354</v>
@@ -25274,7 +25046,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.658202297080548</v>
+        <v>1.645496655593202</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.865488578684911</v>
@@ -25363,7 +25135,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.659385871639262</v>
+        <v>1.654923759062545</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.793054553632835</v>
@@ -25452,7 +25224,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.653934533950386</v>
+        <v>1.649630380628591</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.848558535505689</v>
@@ -25541,7 +25313,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659385435074614</v>
+        <v>1.654901220752115</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.838943170343044</v>
@@ -25630,7 +25402,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655138720729138</v>
+        <v>1.649056258500634</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.00188176088646</v>
@@ -25719,7 +25491,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664383040594501</v>
+        <v>1.660784770141006</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.831142658254575</v>
@@ -25808,7 +25580,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.670511609466636</v>
+        <v>1.66633109415573</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.807524250939992</v>
@@ -25897,7 +25669,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.672404600814732</v>
+        <v>1.667119565618414</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.922296572626253</v>
@@ -25986,7 +25758,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.667281407025287</v>
+        <v>1.661441729422337</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.961489413625203</v>
@@ -26075,7 +25847,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.668884093851468</v>
+        <v>1.667190616450045</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.682022731369823</v>
@@ -26164,7 +25936,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.666281734210207</v>
+        <v>1.663851499048737</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.806196213202059</v>
@@ -26253,7 +26025,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.666074229367863</v>
+        <v>1.657725866076008</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.704030625749772</v>
@@ -26342,7 +26114,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.682342695085424</v>
+        <v>1.666504977111911</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.260402874133543</v>
@@ -26431,7 +26203,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679897825741574</v>
+        <v>1.664101055919744</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.120324224114292</v>
@@ -26520,7 +26292,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.680084231572763</v>
+        <v>1.663747151813576</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.366819836515471</v>
@@ -26609,7 +26381,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.682367004026439</v>
+        <v>1.663294331090821</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.982964548148362</v>
@@ -26698,7 +26470,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.662924661045694</v>
+        <v>1.646581126450979</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.120332843629012</v>
@@ -26787,7 +26559,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.661792463986783</v>
+        <v>1.641575627402858</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.162864416779707</v>
@@ -26876,7 +26648,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.664506356070513</v>
+        <v>1.644410763636224</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.15185032270313</v>
@@ -26965,7 +26737,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669851119822602</v>
+        <v>1.650276535359057</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.293685607008874</v>
@@ -27054,7 +26826,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.663616419619647</v>
+        <v>1.643313075156354</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.217772871392574</v>
@@ -27143,7 +26915,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.650246107889748</v>
+        <v>1.633286319100338</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.848181630454536</v>
@@ -27232,7 +27004,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.668410020268145</v>
+        <v>1.648320598871463</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.985748179511175</v>
@@ -27321,7 +27093,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.681838689310469</v>
+        <v>1.660502450721219</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.088165320715186</v>
@@ -27410,7 +27182,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.679068681593236</v>
+        <v>1.655853820597635</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.111394276438545</v>
@@ -27499,7 +27271,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.673040806861353</v>
+        <v>1.655126395921649</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.128440200619872</v>
@@ -27588,7 +27360,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647749507879341</v>
+        <v>1.634398807106723</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.994575626636873</v>
@@ -27677,7 +27449,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.667124417174382</v>
+        <v>1.646192783968365</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.969501930422894</v>
@@ -27766,7 +27538,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.658366766395668</v>
+        <v>1.636587227376237</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.83000448777755</v>
@@ -27855,7 +27627,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.657953377389942</v>
+        <v>1.636968137781613</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.866058829722088</v>
@@ -27944,7 +27716,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663751364764163</v>
+        <v>1.646445500846942</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.026423016840131</v>
@@ -28033,7 +27805,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.65798845738164</v>
+        <v>1.643369951126973</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.814558138457344</v>
@@ -28122,7 +27894,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648843780090854</v>
+        <v>1.634724347285802</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.022320515747396</v>
@@ -28211,7 +27983,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.642691793365568</v>
+        <v>1.632910356440747</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.0737429589305</v>
@@ -28300,7 +28072,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.643031741466678</v>
+        <v>1.631353826602435</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.012419883412957</v>
@@ -28389,7 +28161,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.640229320655365</v>
+        <v>1.625862437280682</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.837226648847451</v>
@@ -28478,7 +28250,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.632825729401666</v>
+        <v>1.612419595759703</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.03505453802685</v>
@@ -28567,7 +28339,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.613666710937169</v>
+        <v>1.595618995821748</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.973185181848848</v>
@@ -28656,7 +28428,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.606851491867743</v>
+        <v>1.590080707917486</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.954875902138727</v>
@@ -28745,7 +28517,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.598874276585685</v>
+        <v>1.582118907512093</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.061327252286322</v>
@@ -28834,7 +28606,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.593351615991986</v>
+        <v>1.577419016301949</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.800249715570444</v>
@@ -28923,7 +28695,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.606662934174922</v>
+        <v>1.589644463734723</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.918274145034139</v>
@@ -29012,7 +28784,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.604939751383544</v>
+        <v>1.596878441131977</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.961522175934247</v>
@@ -29101,7 +28873,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.595485999830491</v>
+        <v>1.593051742988819</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.938786285123772</v>
@@ -29190,7 +28962,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.595835343852548</v>
+        <v>1.595730051979463</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.064858121918503</v>
@@ -29279,7 +29051,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.590174916223547</v>
+        <v>1.589608210087663</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.02921618171399</v>
@@ -29368,7 +29140,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.602433731050529</v>
+        <v>1.597270318064898</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.088168284392554</v>
@@ -29457,7 +29229,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.607696208973199</v>
+        <v>1.60310162216232</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.821848233595157</v>
@@ -29546,7 +29318,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.587387316663043</v>
+        <v>1.581228503805516</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.041224553526549</v>
@@ -29635,7 +29407,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.558308185081585</v>
+        <v>1.555938622069212</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.695493664058877</v>
@@ -29724,7 +29496,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.554383274760616</v>
+        <v>1.551234059337131</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.743949318675353</v>
@@ -29813,7 +29585,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.570983826262573</v>
+        <v>1.568545363912054</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.610823657278892</v>
@@ -29902,7 +29674,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.570229176936949</v>
+        <v>1.572039185427365</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.724757414328151</v>
@@ -29991,7 +29763,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.574742819137595</v>
+        <v>1.57344408848909</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.510122724863248</v>
@@ -30080,7 +29852,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.583090215130623</v>
+        <v>1.576370316168319</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.677467861286867</v>
@@ -30169,7 +29941,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.57676934900046</v>
+        <v>1.565972921386515</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.432249949030802</v>
@@ -30258,7 +30030,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.57364232001474</v>
+        <v>1.564710189358359</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.529241295085677</v>
@@ -30347,7 +30119,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.571671897976743</v>
+        <v>1.557088884882348</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.623001401367463</v>
@@ -30436,7 +30208,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.582644779120193</v>
+        <v>1.560402086134101</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.582417121271356</v>
@@ -30525,7 +30297,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.567582488899809</v>
+        <v>1.546666872766569</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.445227779037865</v>
@@ -30614,7 +30386,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.567280458135211</v>
+        <v>1.546306085053738</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.484927854607537</v>
@@ -30703,7 +30475,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.561113357651889</v>
+        <v>1.541497167694074</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.61394209773125</v>
@@ -30792,7 +30564,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.550368253857586</v>
+        <v>1.537958919400655</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.502565136922015</v>
@@ -30881,7 +30653,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.563831544298455</v>
+        <v>1.549387920946053</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.617340513698815</v>
@@ -30970,7 +30742,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.582068314776754</v>
+        <v>1.566160430017996</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.995587115208356</v>
@@ -31059,7 +30831,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.584563377041876</v>
+        <v>1.570409756099541</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.931596460234557</v>
@@ -31345,7 +31117,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.507399943299512</v>
+        <v>1.522191731256374</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.21660091265302</v>
@@ -31434,7 +31206,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.507527293858344</v>
+        <v>1.524997778642339</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.159788453154733</v>
@@ -31523,7 +31295,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505529315969689</v>
+        <v>1.521380413815104</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.220624158346975</v>
@@ -31612,7 +31384,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.509612766055451</v>
+        <v>1.5287786770338</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.146612653398027</v>
@@ -31701,7 +31473,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.541058454199399</v>
+        <v>1.560280902271379</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.256912401296397</v>
@@ -31790,7 +31562,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536738698525939</v>
+        <v>1.556059589749637</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.255395100374366</v>
@@ -31879,7 +31651,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.497084729430442</v>
+        <v>1.516418597401489</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.251078819106571</v>
@@ -31968,7 +31740,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.480295302594434</v>
+        <v>1.504790852644286</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.211403534734369</v>
@@ -32057,7 +31829,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.486299986480721</v>
+        <v>1.508205115138852</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.200654185127804</v>
@@ -32146,7 +31918,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.486978912883849</v>
+        <v>1.509577265901988</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.091979126410553</v>
@@ -32235,7 +32007,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.550090398127454</v>
+        <v>1.567229554549657</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.140418596594835</v>
@@ -32324,7 +32096,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.514559535192392</v>
+        <v>1.532268326276893</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.213469522102772</v>
@@ -32413,7 +32185,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.495706018852162</v>
+        <v>1.516768944684157</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.180220180924614</v>
@@ -32502,7 +32274,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.49213759206167</v>
+        <v>1.5125850416335</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.188415960805418</v>
@@ -32591,7 +32363,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.509824746896038</v>
+        <v>1.52375564317193</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.146140996820623</v>
@@ -32680,7 +32452,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556289681049375</v>
+        <v>1.570907867664975</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.361138611761612</v>
@@ -32769,7 +32541,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.558243940574059</v>
+        <v>1.575016979998752</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.336892247592566</v>
@@ -32858,7 +32630,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.527818159655217</v>
+        <v>1.539930896959838</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.355788558277546</v>
@@ -32947,7 +32719,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.49706035491053</v>
+        <v>1.522052086342744</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.254036075291481</v>
@@ -33036,7 +32808,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.518652348430412</v>
+        <v>1.54092900821659</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.336990397369787</v>
@@ -33125,7 +32897,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518145045813808</v>
+        <v>1.539255759161729</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.362595155616939</v>
@@ -33214,7 +32986,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.569835554756037</v>
+        <v>1.588717517293713</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.261933103652228</v>
@@ -33303,7 +33075,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.569383506528664</v>
+        <v>1.589440060838184</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.242015457178085</v>
@@ -33392,7 +33164,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.549048596584178</v>
+        <v>1.565719453174073</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.216346479213279</v>
@@ -33481,7 +33253,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.503892042437077</v>
+        <v>1.526690312318564</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.213124569959858</v>
@@ -33570,7 +33342,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.500844958045866</v>
+        <v>1.529614989071602</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.230924097937797</v>
@@ -33659,7 +33431,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.540339800365173</v>
+        <v>1.566041188340236</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.063980287207649</v>
@@ -33748,7 +33520,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547961306799243</v>
+        <v>1.578255285116988</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.227984849052823</v>
@@ -33837,7 +33609,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.550476409212356</v>
+        <v>1.581986269466588</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.228452529258246</v>
@@ -33926,7 +33698,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.519019058018111</v>
+        <v>1.549472256543444</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.177359656919277</v>
@@ -34015,7 +33787,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.510973357096535</v>
+        <v>1.542104514896584</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.213641368103153</v>
@@ -34104,7 +33876,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.499782950959243</v>
+        <v>1.530415830010282</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.189581579654429</v>
@@ -34193,7 +33965,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.544910557871233</v>
+        <v>1.572008524632583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.911848774658935</v>
@@ -34282,7 +34054,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57300205743492</v>
+        <v>1.595842921499445</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.134626295281773</v>
@@ -34371,7 +34143,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.577114827910288</v>
+        <v>1.601499751110683</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.1414638010085</v>
@@ -34460,7 +34232,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.572344775590552</v>
+        <v>1.595281852722578</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.137837705255304</v>
@@ -34549,7 +34321,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.569322613933198</v>
+        <v>1.588616236799468</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.146482871733975</v>
@@ -34638,7 +34410,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.580509067289918</v>
+        <v>1.597406174437028</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.117446474285985</v>
@@ -34727,7 +34499,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.623901349318151</v>
+        <v>1.632062716721623</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.141692152748333</v>
@@ -34816,7 +34588,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.674117209968737</v>
+        <v>1.676733183396681</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.495816169999443</v>
@@ -34905,7 +34677,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.681535512815986</v>
+        <v>1.676293611425688</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.348063807309369</v>
@@ -34994,7 +34766,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.690952066326047</v>
+        <v>1.67917710505025</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.277388589511068</v>
@@ -35083,7 +34855,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.705388543407177</v>
+        <v>1.689073252836735</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.463230723393756</v>
@@ -35172,7 +34944,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.703960138727396</v>
+        <v>1.682219597543421</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.373503907123042</v>
@@ -35261,7 +35033,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.767764904180838</v>
+        <v>1.736740879754462</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.989129933974353</v>
@@ -35350,7 +35122,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.665890440400819</v>
+        <v>1.642108238076217</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.074336747653766</v>
@@ -35439,7 +35211,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.620116934010464</v>
+        <v>1.613782640231597</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.097742466523538</v>
@@ -35528,7 +35300,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.617920400220194</v>
+        <v>1.61034038245202</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.059787614333894</v>
@@ -35617,7 +35389,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.61106236476343</v>
+        <v>1.600679413010329</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.063691055939338</v>
@@ -35706,7 +35478,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.606751036330232</v>
+        <v>1.596305564365736</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.032625954548447</v>
@@ -35795,7 +35567,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562600459707485</v>
+        <v>1.557321301808817</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.101356603855848</v>
@@ -35884,7 +35656,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.535338931457879</v>
+        <v>1.53652838722672</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.065478143939622</v>
@@ -35973,7 +35745,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.518070777109366</v>
+        <v>1.517410990073468</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.057085931008996</v>
@@ -36062,7 +35834,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.510361353090451</v>
+        <v>1.513182353766295</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.056253168426943</v>
@@ -36151,7 +35923,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.510572293189838</v>
+        <v>1.512160093052888</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.075720433376592</v>
@@ -36240,7 +36012,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.509673543163979</v>
+        <v>1.514915588066722</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.113011966064189</v>
@@ -36329,7 +36101,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.491588819900886</v>
+        <v>1.485022797333559</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.083931208173498</v>
@@ -36418,7 +36190,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.446408453573587</v>
+        <v>1.461119129932407</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.105304569869786</v>
@@ -36507,7 +36279,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.445904782079809</v>
+        <v>1.460887732465989</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.152643639917437</v>
@@ -36596,7 +36368,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.444478150191821</v>
+        <v>1.461739450709437</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.164791166935588</v>
@@ -36685,7 +36457,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.495705113804572</v>
+        <v>1.51081656812825</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.046089194373845</v>
@@ -36774,7 +36546,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.459297579958622</v>
+        <v>1.480680885217041</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.219663345687134</v>
@@ -36863,7 +36635,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.455045746886675</v>
+        <v>1.479001142872308</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.188140830693566</v>
@@ -36952,7 +36724,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.45887239831527</v>
+        <v>1.483803133969381</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.165851212566587</v>
@@ -37041,7 +36813,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.4596490136583</v>
+        <v>1.483830372691349</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.179691865798685</v>
@@ -37130,7 +36902,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.509033845302081</v>
+        <v>1.52989907527704</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.167869221883354</v>
@@ -37219,7 +36991,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.482948013830841</v>
+        <v>1.503470592482322</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.146682638683552</v>
@@ -37308,7 +37080,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.453159904044879</v>
+        <v>1.478716457437335</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.186157885390936</v>
@@ -37397,7 +37169,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.450505425720443</v>
+        <v>1.476900867575876</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.187830290687462</v>
@@ -37486,7 +37258,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.457457531436789</v>
+        <v>1.483366442457725</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.174729081692568</v>
@@ -37575,7 +37347,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.425291889508873</v>
+        <v>1.451107774297293</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.096717842094861</v>
@@ -37664,7 +37436,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.434408827906457</v>
+        <v>1.460083675941968</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.887747383345797</v>
@@ -37753,7 +37525,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.453133289951027</v>
+        <v>1.477874986931236</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.141627711152122</v>
@@ -37842,7 +37614,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.452438047421292</v>
+        <v>1.479064524864312</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.16817633374994</v>
@@ -37931,7 +37703,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.45215271650679</v>
+        <v>1.475302775570402</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.106163489080475</v>
@@ -38020,7 +37792,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.463188800846793</v>
+        <v>1.482850131943585</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.928453759391044</v>
@@ -38109,7 +37881,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.490596318535279</v>
+        <v>1.508216292801506</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.166929635060969</v>
@@ -38198,7 +37970,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.431290932832149</v>
+        <v>1.452254644058995</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.165827735537665</v>
@@ -38287,7 +38059,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.431412644570286</v>
+        <v>1.453596513138832</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.112221718667228</v>
@@ -38376,7 +38148,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.436077035824789</v>
+        <v>1.462075930288433</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.16763519528298</v>
@@ -38465,7 +38237,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.434219129368467</v>
+        <v>1.46194959784977</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.174895927652762</v>
@@ -38751,7 +38523,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620369272244216</v>
+        <v>1.61900665126038</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.587204414105545</v>
@@ -38840,7 +38612,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.623928658671138</v>
+        <v>1.623761738231529</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.56839610241009</v>
@@ -38929,7 +38701,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.632054043491152</v>
+        <v>1.629905590153485</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.545131783477252</v>
@@ -39018,7 +38790,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.681920156063673</v>
+        <v>1.672681172634013</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.685052837502806</v>
@@ -39107,7 +38879,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.689753090721289</v>
+        <v>1.682016430302135</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.668587374601485</v>
@@ -39196,7 +38968,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.693874555666115</v>
+        <v>1.686958868400846</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.816720626531961</v>
@@ -39285,7 +39057,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.721721459752787</v>
+        <v>1.712052387587667</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.829407406693395</v>
@@ -39374,7 +39146,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.716645324953179</v>
+        <v>1.709484418824013</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.678790767166304</v>
@@ -39463,7 +39235,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.714160537451552</v>
+        <v>1.709865533094664</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.648762461351396</v>
@@ -39552,7 +39324,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.711962333238236</v>
+        <v>1.708215611654903</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.180056533013538</v>
@@ -39641,7 +39413,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.710377503545018</v>
+        <v>1.705547863762503</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.233701242231164</v>
@@ -39730,7 +39502,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.700433600187575</v>
+        <v>1.696075640040782</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.454297226807636</v>
@@ -39819,7 +39591,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.680508164121914</v>
+        <v>1.682541707165001</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.658057855213237</v>
@@ -39908,7 +39680,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.687493578536527</v>
+        <v>1.686492638798721</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.7761717880733</v>
@@ -39997,7 +39769,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.687414564757436</v>
+        <v>1.685437533412558</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.859917591247565</v>
@@ -40086,7 +39858,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.693187986936226</v>
+        <v>1.693543346064093</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.012449928295337</v>
@@ -40175,7 +39947,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.704882588868285</v>
+        <v>1.705547286131537</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.926780119534686</v>
@@ -40264,7 +40036,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.687654462581943</v>
+        <v>1.662222634926246</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.154226805489543</v>
@@ -40353,7 +40125,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.646981154515404</v>
+        <v>1.64750655598465</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.215556577921525</v>
@@ -40442,7 +40214,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.632246836986435</v>
+        <v>1.633798638839917</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.119771955060635</v>
@@ -40531,7 +40303,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.639353611028064</v>
+        <v>1.637043635216152</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.204680701709367</v>
@@ -40620,7 +40392,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.644468926882503</v>
+        <v>1.639099622003192</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.205430012446058</v>
@@ -40709,7 +40481,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.646244840572942</v>
+        <v>1.636675408676496</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.165377344267958</v>
@@ -40798,7 +40570,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.623698820710963</v>
+        <v>1.61502078700588</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.18688471333836</v>
@@ -40887,7 +40659,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.623768685134241</v>
+        <v>1.613018241344482</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.129559106299602</v>
@@ -40976,7 +40748,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.632182423182198</v>
+        <v>1.62482209739759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.16240106582575</v>
@@ -41065,7 +40837,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632631275370933</v>
+        <v>1.624400917223049</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.17470855434235</v>
@@ -41154,7 +40926,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.652094007850105</v>
+        <v>1.636772178651732</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.25679584528348</v>
@@ -41243,7 +41015,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.642497043896775</v>
+        <v>1.631444843041232</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.167918282672981</v>
@@ -41332,7 +41104,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.633502016381978</v>
+        <v>1.621482245024919</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.178644940309426</v>
@@ -41421,7 +41193,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619588018642608</v>
+        <v>1.608230249133063</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.204653741763805</v>
@@ -41510,7 +41282,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.612085506738883</v>
+        <v>1.599663962453105</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.229659362429075</v>
@@ -41599,7 +41371,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.645987022908888</v>
+        <v>1.631867121172946</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.529409344581923</v>
@@ -41688,7 +41460,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.651537913187883</v>
+        <v>1.635325614892869</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.942323446557419</v>
@@ -41777,7 +41549,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.664061105098395</v>
+        <v>1.644228748932292</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.273379610518161</v>
@@ -41866,7 +41638,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.656848736518935</v>
+        <v>1.641449504499746</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.024069816655988</v>
@@ -41955,7 +41727,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.655991907761749</v>
+        <v>1.644742878312197</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.287646940122091</v>
@@ -42044,7 +41816,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660815650584697</v>
+        <v>1.651995989210077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.185491969751824</v>
@@ -42133,7 +41905,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.687173915459444</v>
+        <v>1.673517922959245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.33538952644657</v>
@@ -42222,7 +41994,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.689195893264429</v>
+        <v>1.674877038640249</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.364396800833855</v>
@@ -42311,7 +42083,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.675359019314004</v>
+        <v>1.666738652742324</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.07721583174391</v>
@@ -42400,7 +42172,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.649707473153905</v>
+        <v>1.642429657511261</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.962702128081521</v>
@@ -42489,7 +42261,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.649991012490419</v>
+        <v>1.649887385431407</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.02444788348754</v>
@@ -42578,7 +42350,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652878244819194</v>
+        <v>1.6478173539332</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.971968486212042</v>
@@ -42667,7 +42439,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.66823847997374</v>
+        <v>1.664422900764493</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.710455870809704</v>
@@ -42756,7 +42528,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.669372830009228</v>
+        <v>1.66509537028496</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.073584821478281</v>
@@ -42845,7 +42617,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.636564750937295</v>
+        <v>1.634697327823182</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.753142339866899</v>
@@ -42934,7 +42706,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636505763600516</v>
+        <v>1.63497653261147</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.641723460511526</v>
@@ -43023,7 +42795,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.630564573393504</v>
+        <v>1.631747964419046</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.658874865877273</v>
@@ -43112,7 +42884,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.612196625104315</v>
+        <v>1.608880669005995</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.675890756588455</v>
@@ -43201,7 +42973,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.592745167412511</v>
+        <v>1.59190994193954</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.58843872172155</v>
@@ -43290,7 +43062,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.584145956583928</v>
+        <v>1.580515343776317</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.683105701342804</v>
@@ -43379,7 +43151,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.578957161916368</v>
+        <v>1.578467371843722</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.68351305070745</v>
@@ -43468,7 +43240,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.56129785480856</v>
+        <v>1.566663794314987</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.667391235406145</v>
@@ -43557,7 +43329,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.557194476814939</v>
+        <v>1.559223886857181</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.736742519327129</v>
@@ -43646,7 +43418,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.555910872544532</v>
+        <v>1.553549665054148</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.677726393777186</v>
@@ -43735,7 +43507,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.576709508666304</v>
+        <v>1.572825384582893</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.693467023288811</v>
@@ -43824,7 +43596,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.57218321064732</v>
+        <v>1.573212249247302</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.710795236933134</v>
@@ -43913,7 +43685,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.578669552055848</v>
+        <v>1.577694174895057</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.597327233647454</v>
@@ -44002,7 +43774,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.572393598071057</v>
+        <v>1.573595313767336</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.704232579013979</v>
@@ -44091,7 +43863,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.583638967827195</v>
+        <v>1.584208833299975</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.709884173665761</v>
@@ -44180,7 +43952,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.612075488770676</v>
+        <v>1.608847039921137</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.853300750502704</v>
@@ -44269,7 +44041,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.618973279114788</v>
+        <v>1.614306439145277</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.822533753722344</v>
@@ -44358,7 +44130,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.610175809234558</v>
+        <v>1.609022635181715</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.870628241310643</v>
@@ -44447,7 +44219,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.628163209887459</v>
+        <v>1.635371040228699</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.786512417514334</v>
@@ -44536,7 +44308,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.654009897350748</v>
+        <v>1.656350289359838</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.709452474997281</v>
@@ -44625,7 +44397,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.675129669859759</v>
+        <v>1.678789777122389</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.774441376005346</v>
@@ -44714,7 +44486,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.677065336589364</v>
+        <v>1.680972134667968</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.786208553829481</v>
@@ -44803,7 +44575,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.71424826276841</v>
+        <v>1.710872747446979</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.855678462293045</v>
@@ -44892,7 +44664,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.722433994344647</v>
+        <v>1.719667248558205</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.14335034445784</v>
@@ -44981,7 +44753,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.73107961926324</v>
+        <v>1.72114822162665</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.029533510920778</v>
@@ -45070,7 +44842,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.72896278310173</v>
+        <v>1.723171285476396</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.979439071781308</v>
@@ -45159,7 +44931,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.726165821859997</v>
+        <v>1.719920406358926</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.126569410141404</v>
@@ -45248,7 +45020,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.70806254522937</v>
+        <v>1.707129994046601</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.165594553185903</v>
@@ -45337,7 +45109,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.696065603565159</v>
+        <v>1.689867378637585</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.920774950972866</v>
@@ -45426,7 +45198,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.692097017790133</v>
+        <v>1.684337779514925</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.781091740384257</v>
@@ -45515,7 +45287,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.684796124477171</v>
+        <v>1.68497551152121</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.82435060538321</v>
@@ -45604,7 +45376,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.669974682646632</v>
+        <v>1.673446559873269</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.841224276323849</v>
@@ -45693,7 +45465,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.689658376213529</v>
+        <v>1.688384107550164</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.84886527874581</v>
@@ -45782,7 +45554,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.683866003986969</v>
+        <v>1.683993113935077</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.747453674840104</v>
@@ -45871,7 +45643,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.673616791128512</v>
+        <v>1.674373370768092</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.930513680076144</v>
@@ -46157,7 +45929,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.583640628333014</v>
+        <v>1.585819478852812</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.938681848598098</v>
@@ -46246,7 +46018,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.600275047754538</v>
+        <v>1.603653996265674</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.021594297634802</v>
@@ -46335,7 +46107,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60751348461783</v>
+        <v>1.612283641262232</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.819618122934196</v>
@@ -46424,7 +46196,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.60124844889505</v>
+        <v>1.61169717275237</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.972815023024633</v>
@@ -46513,7 +46285,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.5999213893502</v>
+        <v>1.610607840880461</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.015183096375161</v>
@@ -46602,7 +46374,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599842617541172</v>
+        <v>1.609011038841283</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.090359748757187</v>
@@ -46691,7 +46463,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593681555726207</v>
+        <v>1.598450130273818</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.882036549217042</v>
@@ -46780,7 +46552,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.593894974402676</v>
+        <v>1.600690875844383</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.698146518291031</v>
@@ -46869,7 +46641,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.584421887594388</v>
+        <v>1.585959523855957</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.767636927753832</v>
@@ -46958,7 +46730,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.590531877692799</v>
+        <v>1.592521934011317</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.497576300801551</v>
@@ -47047,7 +46819,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595847171613776</v>
+        <v>1.606189019131365</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.942686748815388</v>
@@ -47136,7 +46908,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584639272382825</v>
+        <v>1.599368186846903</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.106986359963756</v>
@@ -47225,7 +46997,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571699364199863</v>
+        <v>1.589441438823036</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.930638034671474</v>
@@ -47314,7 +47086,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.568414560096895</v>
+        <v>1.585518661882306</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.973092156332354</v>
@@ -47403,7 +47175,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.564546806543713</v>
+        <v>1.582544837146289</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.933434176571307</v>
@@ -47492,7 +47264,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.574649229839476</v>
+        <v>1.596454812862705</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.113033416314333</v>
@@ -47581,7 +47353,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586781616200698</v>
+        <v>1.611840149846116</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.239257878131013</v>
@@ -47670,7 +47442,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.569540555412166</v>
+        <v>1.594895366518608</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.074807492896022</v>
@@ -47759,7 +47531,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.575740588751298</v>
+        <v>1.603679771467734</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.169081580776441</v>
@@ -47848,7 +47620,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.579587721491796</v>
+        <v>1.60230100875568</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.727773547526484</v>
@@ -47937,7 +47709,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.578439968966051</v>
+        <v>1.598208140148323</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.116082546332537</v>
@@ -48026,7 +47798,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582574641591396</v>
+        <v>1.603178089773857</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.10793173971894</v>
@@ -48115,7 +47887,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.59612056785599</v>
+        <v>1.613786251091411</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.152728289713995</v>
@@ -48204,7 +47976,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584199398276027</v>
+        <v>1.603860759328943</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.950415202363856</v>
@@ -48293,7 +48065,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.579041122056169</v>
+        <v>1.595567564319351</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.993395201613172</v>
@@ -48382,7 +48154,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583519955769903</v>
+        <v>1.600365474691511</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.914387295156589</v>
@@ -48471,7 +48243,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.584700331226373</v>
+        <v>1.602905224723906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.291706297317842</v>
@@ -48560,7 +48332,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.577746279119277</v>
+        <v>1.594681409755073</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.85106903025524</v>
@@ -48649,7 +48421,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.569427384651788</v>
+        <v>1.586947415274843</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.792487304595233</v>
@@ -48738,7 +48510,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574607152265042</v>
+        <v>1.591151566303847</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.926857424405908</v>
@@ -48827,7 +48599,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.552857612673607</v>
+        <v>1.566615139737636</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.720825552910362</v>
@@ -48916,7 +48688,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.525451096360225</v>
+        <v>1.531763630560788</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.790163230524692</v>
@@ -49005,7 +48777,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.547746209527233</v>
+        <v>1.552816076384151</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.809989073965874</v>
@@ -49094,7 +48866,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.546014399130017</v>
+        <v>1.551709622383086</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.699992589731818</v>
@@ -49183,7 +48955,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541824553960548</v>
+        <v>1.546693553986796</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.698460643185282</v>
@@ -49272,7 +49044,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.543373606950644</v>
+        <v>1.546643492924825</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.857508746764373</v>
@@ -49361,7 +49133,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.550094780306738</v>
+        <v>1.55642514741659</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.729567929514753</v>
@@ -49450,7 +49222,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.542548541591851</v>
+        <v>1.552571411011898</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.767472289171486</v>
@@ -49539,7 +49311,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.553700338540856</v>
+        <v>1.565428941867395</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.535202833026599</v>
@@ -49628,7 +49400,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.559419469170239</v>
+        <v>1.571031144624097</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.639677722951578</v>
@@ -49717,7 +49489,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.545543482156001</v>
+        <v>1.55555283009353</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.647674595256177</v>
@@ -49806,7 +49578,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519405619892542</v>
+        <v>1.530012336381951</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.711772555399795</v>
@@ -49895,7 +49667,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54478854640735</v>
+        <v>1.550028987782679</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.329262124122474</v>
@@ -49984,7 +49756,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.543440303522205</v>
+        <v>1.549089757108438</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.475299268845131</v>
@@ -50073,7 +49845,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.530528984851646</v>
+        <v>1.53331556679119</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.45863500369393</v>
@@ -50162,7 +49934,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.548140391780011</v>
+        <v>1.555639317631566</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.566555779927395</v>
@@ -50251,7 +50023,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.571552515619222</v>
+        <v>1.578400162011329</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.638955704431282</v>
@@ -50340,7 +50112,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.544792194712753</v>
+        <v>1.547629233049307</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.739190790778971</v>
@@ -50429,7 +50201,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527274764307146</v>
+        <v>1.538010096761058</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.698676785489115</v>
@@ -50518,7 +50290,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.527145709047328</v>
+        <v>1.541076447028759</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.796208689246206</v>
@@ -50607,7 +50379,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.516354984921807</v>
+        <v>1.535713352233904</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.735629726269695</v>
@@ -50696,7 +50468,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.509441478746534</v>
+        <v>1.527368631409079</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.874904867530257</v>
@@ -50785,7 +50557,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.494889558027299</v>
+        <v>1.514100143234238</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.531131283184106</v>
@@ -50874,7 +50646,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.493999833872108</v>
+        <v>1.514813929745477</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.590337932290165</v>
@@ -50963,7 +50735,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.480746603163399</v>
+        <v>1.501414689156457</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.797142598914142</v>
@@ -51052,7 +50824,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.480283793861046</v>
+        <v>1.501991634008256</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.54958944375855</v>
@@ -51141,7 +50913,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.485077684697443</v>
+        <v>1.504796542808741</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.795720244570142</v>
@@ -51230,7 +51002,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.480397636075086</v>
+        <v>1.501861600800693</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.87611759386358</v>
@@ -51319,7 +51091,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.469521988568858</v>
+        <v>1.491979283489193</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.629720378681521</v>
@@ -51408,7 +51180,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.466420590677528</v>
+        <v>1.488313533286792</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.816052926038023</v>
@@ -51497,7 +51269,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.46185845812968</v>
+        <v>1.478922909419937</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.903055465655251</v>
@@ -51586,7 +51358,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.447075623066153</v>
+        <v>1.465829804458637</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.847997378677949</v>
@@ -51675,7 +51447,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.470621663722671</v>
+        <v>1.489108703412841</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.814699504308768</v>
@@ -51764,7 +51536,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.455096949342461</v>
+        <v>1.475114166962797</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.859132193260867</v>
@@ -51853,7 +51625,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.449538785345909</v>
+        <v>1.46931847418938</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.902108009572033</v>
@@ -51942,7 +51714,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.464987318617522</v>
+        <v>1.478451585103426</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.524890403927022</v>
@@ -52031,7 +51803,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.477306912899516</v>
+        <v>1.486580104162856</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.824920903399094</v>
@@ -52120,7 +51892,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.477233457468178</v>
+        <v>1.484897362359171</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.900172525177828</v>
@@ -52209,7 +51981,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.464610776715465</v>
+        <v>1.47191695406969</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.871055884205794</v>
@@ -52298,7 +52070,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.487782649436078</v>
+        <v>1.490198732349944</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.677920599676179</v>
@@ -52387,7 +52159,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.493335219474212</v>
+        <v>1.491663505689285</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.495271627560581</v>
@@ -52476,7 +52248,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.501402885881976</v>
+        <v>1.501041762700575</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.618454018336108</v>
@@ -52565,7 +52337,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.500772669826913</v>
+        <v>1.501821196912104</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.557872072213916</v>
@@ -52654,7 +52426,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.50674676139261</v>
+        <v>1.500887925305145</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.723752946474518</v>
@@ -52743,7 +52515,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.507309065589712</v>
+        <v>1.504883452792046</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.502087429353745</v>
@@ -52832,7 +52604,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.504178225991523</v>
+        <v>1.500954666676019</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.82756863200695</v>
@@ -52921,7 +52693,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.499289044235574</v>
+        <v>1.498379107443423</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.89676781835633</v>
@@ -53010,7 +52782,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.486049771903334</v>
+        <v>1.487039355034153</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.842966237881779</v>
@@ -53099,7 +52871,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.515110849261047</v>
+        <v>1.516279828359405</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.987688838698045</v>
@@ -53188,7 +52960,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.526859988279816</v>
+        <v>1.529432699660486</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.893822538422727</v>
@@ -53277,7 +53049,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.509641470491926</v>
+        <v>1.512510924446873</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.080000800301995</v>
